--- a/TABELA-DE-AÇO R8.xlsx
+++ b/TABELA-DE-AÇO R8.xlsx
@@ -480,15 +480,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,6 +564,15 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -946,20 +946,20 @@
   </sheetPr>
   <dimension ref="A1:Y245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R219" sqref="R219"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188:H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="34" customWidth="1" style="8" min="1" max="1"/>
-    <col width="4.88671875" customWidth="1" style="64" min="2" max="2"/>
+    <col width="4.88671875" customWidth="1" style="59" min="2" max="2"/>
     <col width="7.5546875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="3.88671875" customWidth="1" style="64" min="4" max="4"/>
+    <col width="3.88671875" customWidth="1" style="59" min="4" max="4"/>
     <col width="4.5546875" customWidth="1" style="8" min="5" max="5"/>
-    <col width="3.6640625" customWidth="1" style="64" min="6" max="6"/>
+    <col width="3.6640625" customWidth="1" style="59" min="6" max="6"/>
     <col width="5.5546875" customWidth="1" style="8" min="7" max="7"/>
-    <col width="5.33203125" customWidth="1" style="64" min="8" max="8"/>
+    <col width="5.33203125" customWidth="1" style="59" min="8" max="8"/>
     <col width="17.5546875" customWidth="1" style="8" min="9" max="9"/>
     <col width="9.109375" customWidth="1" style="8" min="10" max="10"/>
     <col width="6.5546875" customWidth="1" style="8" min="11" max="11"/>
@@ -972,24 +972,24 @@
     <col width="10" customWidth="1" style="8" min="18" max="18"/>
     <col width="6.88671875" customWidth="1" style="8" min="19" max="19"/>
     <col width="5.109375" customWidth="1" style="8" min="20" max="20"/>
-    <col width="9.109375" customWidth="1" style="8" min="21" max="23"/>
-    <col width="9.109375" customWidth="1" style="8" min="24" max="16384"/>
+    <col width="9.109375" customWidth="1" style="8" min="21" max="27"/>
+    <col width="9.109375" customWidth="1" style="8" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="88">
-      <c r="A1" s="73" t="inlineStr">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>Tabela  de aço para projeto basico</t>
         </is>
       </c>
-      <c r="B1" s="74" t="n"/>
-      <c r="C1" s="74" t="n"/>
-      <c r="D1" s="74" t="n"/>
-      <c r="E1" s="74" t="n"/>
-      <c r="F1" s="74" t="n"/>
-      <c r="G1" s="74" t="n"/>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="72" t="n"/>
+      <c r="B1" s="69" t="n"/>
+      <c r="C1" s="69" t="n"/>
+      <c r="D1" s="69" t="n"/>
+      <c r="E1" s="69" t="n"/>
+      <c r="F1" s="69" t="n"/>
+      <c r="G1" s="69" t="n"/>
+      <c r="H1" s="70" t="n"/>
+      <c r="I1" s="67" t="n"/>
       <c r="J1" s="91" t="n"/>
       <c r="K1" s="91" t="n"/>
       <c r="L1" s="91" t="n"/>
@@ -1003,19 +1003,19 @@
       <c r="P1" s="32" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" s="88">
-      <c r="A2" s="76" t="inlineStr">
+      <c r="A2" s="71" t="inlineStr">
         <is>
           <t>DESCRIÇAO</t>
         </is>
       </c>
-      <c r="B2" s="77" t="n"/>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="77" t="n"/>
-      <c r="E2" s="77" t="n"/>
-      <c r="F2" s="77" t="n"/>
-      <c r="G2" s="77" t="n"/>
-      <c r="H2" s="78" t="n"/>
-      <c r="I2" s="72" t="inlineStr">
+      <c r="B2" s="72" t="n"/>
+      <c r="C2" s="72" t="n"/>
+      <c r="D2" s="72" t="n"/>
+      <c r="E2" s="72" t="n"/>
+      <c r="F2" s="72" t="n"/>
+      <c r="G2" s="72" t="n"/>
+      <c r="H2" s="73" t="n"/>
+      <c r="I2" s="67" t="inlineStr">
         <is>
           <t>TIPO DE MATERIAL</t>
         </is>
@@ -1060,25 +1060,25 @@
     </row>
     <row r="3" ht="15" customHeight="1" s="88">
       <c r="A3" s="47" t="n"/>
-      <c r="B3" s="59" t="inlineStr">
+      <c r="B3" s="54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="C3" s="47" t="n"/>
-      <c r="D3" s="59" t="inlineStr">
+      <c r="D3" s="54" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E3" s="47" t="n"/>
-      <c r="F3" s="59" t="inlineStr">
+      <c r="F3" s="54" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G3" s="47" t="n"/>
-      <c r="H3" s="59" t="inlineStr">
+      <c r="H3" s="54" t="inlineStr">
         <is>
           <t>esp.</t>
         </is>
@@ -1133,7 +1133,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B4" s="57" t="n">
+      <c r="B4" s="52" t="n">
         <v>127</v>
       </c>
       <c r="C4" s="31" t="inlineStr">
@@ -1141,7 +1141,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D4" s="57" t="n">
+      <c r="D4" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E4" s="31" t="inlineStr">
@@ -1149,7 +1149,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F4" s="57" t="n">
+      <c r="F4" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="31" t="inlineStr">
@@ -1157,7 +1157,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H4" s="71" t="n">
+      <c r="H4" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="31" t="inlineStr">
@@ -1206,7 +1206,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B5" s="57" t="n">
+      <c r="B5" s="52" t="n">
         <v>120</v>
       </c>
       <c r="C5" s="31" t="inlineStr">
@@ -1214,7 +1214,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D5" s="57" t="n">
+      <c r="D5" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E5" s="31" t="inlineStr">
@@ -1222,7 +1222,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F5" s="57" t="n">
+      <c r="F5" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="31" t="inlineStr">
@@ -1230,7 +1230,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H5" s="71" t="n">
+      <c r="H5" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="31" t="inlineStr">
@@ -1279,7 +1279,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B6" s="57" t="n">
+      <c r="B6" s="52" t="n">
         <v>127</v>
       </c>
       <c r="C6" s="31" t="inlineStr">
@@ -1287,7 +1287,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D6" s="57" t="n">
+      <c r="D6" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E6" s="31" t="inlineStr">
@@ -1295,7 +1295,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F6" s="57" t="n">
+      <c r="F6" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="31" t="inlineStr">
@@ -1303,7 +1303,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H6" s="71" t="n">
+      <c r="H6" s="66" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" s="31" t="inlineStr">
@@ -1352,7 +1352,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B7" s="57" t="n">
+      <c r="B7" s="52" t="n">
         <v>127</v>
       </c>
       <c r="C7" s="31" t="inlineStr">
@@ -1360,7 +1360,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D7" s="57" t="n">
+      <c r="D7" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="31" t="inlineStr">
@@ -1368,7 +1368,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F7" s="57" t="n">
+      <c r="F7" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="31" t="inlineStr">
@@ -1376,7 +1376,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H7" s="71" t="n">
+      <c r="H7" s="66" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" s="31" t="inlineStr">
@@ -1425,7 +1425,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B8" s="57" t="n">
+      <c r="B8" s="52" t="n">
         <v>116</v>
       </c>
       <c r="C8" s="31" t="inlineStr">
@@ -1433,7 +1433,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D8" s="57" t="n">
+      <c r="D8" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E8" s="31" t="inlineStr">
@@ -1441,7 +1441,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F8" s="57" t="n">
+      <c r="F8" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="31" t="inlineStr">
@@ -1449,7 +1449,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H8" s="71" t="n">
+      <c r="H8" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="31" t="inlineStr">
@@ -1498,7 +1498,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B9" s="57" t="n">
+      <c r="B9" s="52" t="n">
         <v>116</v>
       </c>
       <c r="C9" s="31" t="inlineStr">
@@ -1506,7 +1506,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D9" s="57" t="n">
+      <c r="D9" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E9" s="31" t="inlineStr">
@@ -1514,7 +1514,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F9" s="57" t="n">
+      <c r="F9" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="31" t="inlineStr">
@@ -1522,7 +1522,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H9" s="71" t="n">
+      <c r="H9" s="66" t="n">
         <v>3</v>
       </c>
       <c r="I9" s="31" t="inlineStr">
@@ -1571,7 +1571,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B10" s="57" t="n">
+      <c r="B10" s="52" t="n">
         <v>116</v>
       </c>
       <c r="C10" s="31" t="inlineStr">
@@ -1579,7 +1579,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D10" s="57" t="n">
+      <c r="D10" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E10" s="31" t="inlineStr">
@@ -1587,7 +1587,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F10" s="57" t="n">
+      <c r="F10" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="31" t="inlineStr">
@@ -1595,7 +1595,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H10" s="71" t="n">
+      <c r="H10" s="66" t="n">
         <v>2.25</v>
       </c>
       <c r="I10" s="31" t="inlineStr">
@@ -1644,7 +1644,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B11" s="57" t="n">
+      <c r="B11" s="52" t="n">
         <v>127</v>
       </c>
       <c r="C11" s="31" t="inlineStr">
@@ -1652,7 +1652,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D11" s="57" t="n">
+      <c r="D11" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E11" s="31" t="inlineStr">
@@ -1660,7 +1660,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F11" s="57" t="n">
+      <c r="F11" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="31" t="inlineStr">
@@ -1668,7 +1668,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H11" s="71" t="n">
+      <c r="H11" s="66" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="31" t="inlineStr">
@@ -1717,7 +1717,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B12" s="57" t="n">
+      <c r="B12" s="52" t="n">
         <v>117</v>
       </c>
       <c r="C12" s="31" t="inlineStr">
@@ -1725,7 +1725,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D12" s="57" t="n">
+      <c r="D12" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="31" t="inlineStr">
@@ -1733,7 +1733,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F12" s="57" t="n">
+      <c r="F12" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="31" t="inlineStr">
@@ -1741,7 +1741,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H12" s="71" t="n">
+      <c r="H12" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="inlineStr">
@@ -1790,7 +1790,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B13" s="57" t="n">
+      <c r="B13" s="52" t="n">
         <v>117</v>
       </c>
       <c r="C13" s="31" t="inlineStr">
@@ -1798,7 +1798,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D13" s="57" t="n">
+      <c r="D13" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E13" s="31" t="inlineStr">
@@ -1806,7 +1806,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F13" s="57" t="n">
+      <c r="F13" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="31" t="inlineStr">
@@ -1814,7 +1814,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H13" s="71" t="n">
+      <c r="H13" s="66" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="31" t="inlineStr">
@@ -1863,7 +1863,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B14" s="57" t="n">
+      <c r="B14" s="52" t="n">
         <v>117</v>
       </c>
       <c r="C14" s="31" t="inlineStr">
@@ -1871,7 +1871,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D14" s="57" t="n">
+      <c r="D14" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E14" s="31" t="inlineStr">
@@ -1879,7 +1879,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F14" s="57" t="n">
+      <c r="F14" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="31" t="inlineStr">
@@ -1887,7 +1887,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H14" s="71" t="n">
+      <c r="H14" s="66" t="n">
         <v>2.25</v>
       </c>
       <c r="I14" s="31" t="inlineStr">
@@ -1936,7 +1936,7 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B15" s="57" t="n">
+      <c r="B15" s="52" t="n">
         <v>127</v>
       </c>
       <c r="C15" s="31" t="inlineStr">
@@ -1944,7 +1944,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D15" s="57" t="n">
+      <c r="D15" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E15" s="31" t="inlineStr">
@@ -1952,7 +1952,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F15" s="57" t="n">
+      <c r="F15" s="52" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="31" t="inlineStr">
@@ -1960,7 +1960,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H15" s="71" t="n">
+      <c r="H15" s="66" t="n">
         <v>2.25</v>
       </c>
       <c r="I15" s="31" t="inlineStr">
@@ -2009,41 +2009,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B16" s="57" t="n">
-        <v>127</v>
-      </c>
+      <c r="B16" s="52" t="n"/>
       <c r="C16" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D16" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D16" s="52" t="n"/>
       <c r="E16" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F16" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="52" t="n"/>
       <c r="G16" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H16" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H16" s="66" t="n"/>
       <c r="I16" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J16" s="31" t="n">
-        <v>85.5847</v>
-      </c>
+      <c r="J16" s="31" t="n"/>
       <c r="K16" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2070,9 +2060,6 @@
         <f>O16*6*L16</f>
         <v/>
       </c>
-      <c r="Q16" t="n">
-        <v>294.27</v>
-      </c>
       <c r="R16" s="2" t="n"/>
       <c r="V16" s="3" t="n"/>
     </row>
@@ -2082,41 +2069,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B17" s="57" t="n">
-        <v>120</v>
-      </c>
+      <c r="B17" s="52" t="n"/>
       <c r="C17" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D17" s="57" t="n">
-        <v>30</v>
-      </c>
+      <c r="D17" s="52" t="n"/>
       <c r="E17" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F17" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="52" t="n"/>
       <c r="G17" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H17" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H17" s="66" t="n"/>
       <c r="I17" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J17" s="31" t="n">
-        <v>118.8532</v>
-      </c>
+      <c r="J17" s="31" t="n"/>
       <c r="K17" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2143,9 +2120,6 @@
         <f>O17*6*L17</f>
         <v/>
       </c>
-      <c r="Q17" t="n">
-        <v>320.95</v>
-      </c>
       <c r="R17" s="2" t="n"/>
       <c r="V17" s="3" t="n"/>
     </row>
@@ -2155,41 +2129,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B18" s="57" t="n">
-        <v>127</v>
-      </c>
+      <c r="B18" s="52" t="n"/>
       <c r="C18" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D18" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D18" s="52" t="n"/>
       <c r="E18" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F18" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="52" t="n"/>
       <c r="G18" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H18" s="71" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="H18" s="66" t="n"/>
       <c r="I18" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J18" s="31" t="n">
-        <v>58.11020000000001</v>
-      </c>
+      <c r="J18" s="31" t="n"/>
       <c r="K18" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2216,9 +2180,6 @@
         <f>O18*6*L18</f>
         <v/>
       </c>
-      <c r="Q18" t="n">
-        <v>326.41</v>
-      </c>
       <c r="R18" s="2" t="n"/>
       <c r="V18" s="3" t="n"/>
     </row>
@@ -2228,41 +2189,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B19" s="57" t="n">
-        <v>127</v>
-      </c>
+      <c r="B19" s="52" t="n"/>
       <c r="C19" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D19" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D19" s="52" t="n"/>
       <c r="E19" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F19" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="52" t="n"/>
       <c r="G19" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H19" s="71" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="H19" s="66" t="n"/>
       <c r="I19" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J19" s="31" t="n">
-        <v>21.3962</v>
-      </c>
+      <c r="J19" s="31" t="n"/>
       <c r="K19" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2289,9 +2240,6 @@
         <f>O19*6*L19</f>
         <v/>
       </c>
-      <c r="Q19" t="n">
-        <v>133.53</v>
-      </c>
       <c r="R19" s="2" t="n"/>
       <c r="V19" s="3" t="n"/>
     </row>
@@ -2301,41 +2249,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B20" s="57" t="n">
-        <v>116</v>
-      </c>
+      <c r="B20" s="52" t="n"/>
       <c r="C20" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D20" s="57" t="n">
-        <v>30</v>
-      </c>
+      <c r="D20" s="52" t="n"/>
       <c r="E20" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F20" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="52" t="n"/>
       <c r="G20" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H20" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H20" s="66" t="n"/>
       <c r="I20" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J20" s="31" t="n">
-        <v>38.3515</v>
-      </c>
+      <c r="J20" s="31" t="n"/>
       <c r="K20" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2362,9 +2300,6 @@
         <f>O20*6*L20</f>
         <v/>
       </c>
-      <c r="Q20" t="n">
-        <v>101.16</v>
-      </c>
       <c r="R20" s="2" t="n"/>
       <c r="V20" s="3" t="n"/>
     </row>
@@ -2374,41 +2309,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B21" s="57" t="n">
-        <v>116</v>
-      </c>
+      <c r="B21" s="52" t="n"/>
       <c r="C21" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D21" s="57" t="n">
-        <v>30</v>
-      </c>
+      <c r="D21" s="52" t="n"/>
       <c r="E21" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F21" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="52" t="n"/>
       <c r="G21" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H21" s="71" t="n">
-        <v>3</v>
-      </c>
+      <c r="H21" s="66" t="n"/>
       <c r="I21" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J21" s="31" t="n">
-        <v>5.256799999999999</v>
-      </c>
+      <c r="J21" s="31" t="n"/>
       <c r="K21" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2435,9 +2360,6 @@
         <f>O21*6*L21</f>
         <v/>
       </c>
-      <c r="Q21" t="n">
-        <v>20.3</v>
-      </c>
       <c r="R21" s="2" t="n"/>
       <c r="V21" s="3" t="n"/>
     </row>
@@ -2447,41 +2369,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B22" s="57" t="n">
-        <v>116</v>
-      </c>
+      <c r="B22" s="52" t="n"/>
       <c r="C22" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D22" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D22" s="52" t="n"/>
       <c r="E22" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F22" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="52" t="n"/>
       <c r="G22" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H22" s="71" t="n">
-        <v>2.25</v>
-      </c>
+      <c r="H22" s="66" t="n"/>
       <c r="I22" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J22" s="31" t="n">
-        <v>15.3159</v>
-      </c>
+      <c r="J22" s="31" t="n"/>
       <c r="K22" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2508,9 +2420,6 @@
         <f>O22*6*L22</f>
         <v/>
       </c>
-      <c r="Q22" t="n">
-        <v>56</v>
-      </c>
       <c r="R22" s="2" t="n"/>
       <c r="V22" s="3" t="n"/>
     </row>
@@ -2520,41 +2429,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B23" s="57" t="n">
-        <v>127</v>
-      </c>
+      <c r="B23" s="52" t="n"/>
       <c r="C23" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D23" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D23" s="52" t="n"/>
       <c r="E23" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F23" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="52" t="n"/>
       <c r="G23" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H23" s="71" t="n">
-        <v>3</v>
-      </c>
+      <c r="H23" s="66" t="n"/>
       <c r="I23" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J23" s="31" t="n">
-        <v>63.5887</v>
-      </c>
+      <c r="J23" s="31" t="n"/>
       <c r="K23" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2581,9 +2480,6 @@
         <f>O23*6*L23</f>
         <v/>
       </c>
-      <c r="Q23" t="n">
-        <v>321.97</v>
-      </c>
       <c r="R23" s="2" t="n"/>
       <c r="V23" s="3" t="n"/>
     </row>
@@ -2593,41 +2489,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B24" s="57" t="n">
-        <v>117</v>
-      </c>
+      <c r="B24" s="52" t="n"/>
       <c r="C24" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D24" s="57" t="n">
-        <v>30</v>
-      </c>
+      <c r="D24" s="52" t="n"/>
       <c r="E24" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F24" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="52" t="n"/>
       <c r="G24" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H24" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H24" s="66" t="n"/>
       <c r="I24" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J24" s="31" t="n">
-        <v>116.0692</v>
-      </c>
+      <c r="J24" s="31" t="n"/>
       <c r="K24" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2654,9 +2540,6 @@
         <f>O24*6*L24</f>
         <v/>
       </c>
-      <c r="Q24" t="n">
-        <v>307.97</v>
-      </c>
       <c r="R24" s="2" t="n"/>
       <c r="V24" s="3" t="n"/>
     </row>
@@ -2666,41 +2549,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B25" s="57" t="n">
-        <v>117</v>
-      </c>
+      <c r="B25" s="52" t="n"/>
       <c r="C25" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D25" s="57" t="n">
-        <v>30</v>
-      </c>
+      <c r="D25" s="52" t="n"/>
       <c r="E25" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F25" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="52" t="n"/>
       <c r="G25" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H25" s="71" t="n">
-        <v>3</v>
-      </c>
+      <c r="H25" s="66" t="n"/>
       <c r="I25" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J25" s="31" t="n">
-        <v>15.7705</v>
-      </c>
+      <c r="J25" s="31" t="n"/>
       <c r="K25" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2727,9 +2600,6 @@
         <f>O25*6*L25</f>
         <v/>
       </c>
-      <c r="Q25" t="n">
-        <v>61.28</v>
-      </c>
       <c r="R25" s="2" t="n"/>
       <c r="V25" s="3" t="n"/>
     </row>
@@ -2739,41 +2609,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B26" s="57" t="n">
-        <v>117</v>
-      </c>
+      <c r="B26" s="52" t="n"/>
       <c r="C26" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D26" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D26" s="52" t="n"/>
       <c r="E26" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F26" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="52" t="n"/>
       <c r="G26" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H26" s="71" t="n">
-        <v>2.25</v>
-      </c>
+      <c r="H26" s="66" t="n"/>
       <c r="I26" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J26" s="31" t="n">
-        <v>46.8006</v>
-      </c>
+      <c r="J26" s="31" t="n"/>
       <c r="K26" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2800,9 +2660,6 @@
         <f>O26*6*L26</f>
         <v/>
       </c>
-      <c r="Q26" t="n">
-        <v>171.94</v>
-      </c>
       <c r="R26" s="2" t="n"/>
       <c r="V26" s="3" t="n"/>
     </row>
@@ -2812,41 +2669,31 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B27" s="57" t="n">
-        <v>127</v>
-      </c>
+      <c r="B27" s="52" t="n"/>
       <c r="C27" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D27" s="57" t="n">
-        <v>50</v>
-      </c>
+      <c r="D27" s="52" t="n"/>
       <c r="E27" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F27" s="57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="52" t="n"/>
       <c r="G27" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H27" s="71" t="n">
-        <v>2.25</v>
-      </c>
+      <c r="H27" s="66" t="n"/>
       <c r="I27" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J27" s="31" t="n">
-        <v>28.0744</v>
-      </c>
+      <c r="J27" s="31" t="n"/>
       <c r="K27" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -2873,9 +2720,6 @@
         <f>O27*6*L27</f>
         <v/>
       </c>
-      <c r="Q27" t="n">
-        <v>108.1</v>
-      </c>
       <c r="R27" s="2" t="n"/>
       <c r="V27" s="3" t="n"/>
     </row>
@@ -2885,25 +2729,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B28" s="57" t="n"/>
+      <c r="B28" s="52" t="n"/>
       <c r="C28" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D28" s="57" t="n"/>
+      <c r="D28" s="52" t="n"/>
       <c r="E28" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F28" s="57" t="n"/>
+      <c r="F28" s="52" t="n"/>
       <c r="G28" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H28" s="71" t="n"/>
+      <c r="H28" s="66" t="n"/>
       <c r="I28" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -2945,25 +2789,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B29" s="57" t="n"/>
+      <c r="B29" s="52" t="n"/>
       <c r="C29" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D29" s="57" t="n"/>
+      <c r="D29" s="52" t="n"/>
       <c r="E29" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F29" s="57" t="n"/>
+      <c r="F29" s="52" t="n"/>
       <c r="G29" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H29" s="71" t="n"/>
+      <c r="H29" s="66" t="n"/>
       <c r="I29" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3005,25 +2849,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B30" s="57" t="n"/>
+      <c r="B30" s="52" t="n"/>
       <c r="C30" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D30" s="57" t="n"/>
+      <c r="D30" s="52" t="n"/>
       <c r="E30" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F30" s="57" t="n"/>
+      <c r="F30" s="52" t="n"/>
       <c r="G30" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H30" s="71" t="n"/>
+      <c r="H30" s="66" t="n"/>
       <c r="I30" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3065,25 +2909,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B31" s="57" t="n"/>
+      <c r="B31" s="52" t="n"/>
       <c r="C31" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D31" s="57" t="n"/>
+      <c r="D31" s="52" t="n"/>
       <c r="E31" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F31" s="57" t="n"/>
+      <c r="F31" s="52" t="n"/>
       <c r="G31" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H31" s="71" t="n"/>
+      <c r="H31" s="66" t="n"/>
       <c r="I31" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3125,25 +2969,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B32" s="57" t="n"/>
+      <c r="B32" s="52" t="n"/>
       <c r="C32" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D32" s="57" t="n"/>
+      <c r="D32" s="52" t="n"/>
       <c r="E32" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F32" s="57" t="n"/>
+      <c r="F32" s="52" t="n"/>
       <c r="G32" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H32" s="71" t="n"/>
+      <c r="H32" s="66" t="n"/>
       <c r="I32" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3185,25 +3029,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B33" s="57" t="n"/>
+      <c r="B33" s="52" t="n"/>
       <c r="C33" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D33" s="57" t="n"/>
+      <c r="D33" s="52" t="n"/>
       <c r="E33" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F33" s="57" t="n"/>
+      <c r="F33" s="52" t="n"/>
       <c r="G33" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H33" s="71" t="n"/>
+      <c r="H33" s="66" t="n"/>
       <c r="I33" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3245,25 +3089,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B34" s="57" t="n"/>
+      <c r="B34" s="52" t="n"/>
       <c r="C34" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D34" s="57" t="n"/>
+      <c r="D34" s="52" t="n"/>
       <c r="E34" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F34" s="57" t="n"/>
+      <c r="F34" s="52" t="n"/>
       <c r="G34" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H34" s="71" t="n"/>
+      <c r="H34" s="66" t="n"/>
       <c r="I34" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3324,25 +3168,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B35" s="57" t="n"/>
+      <c r="B35" s="52" t="n"/>
       <c r="C35" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D35" s="57" t="n"/>
+      <c r="D35" s="52" t="n"/>
       <c r="E35" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F35" s="57" t="n"/>
+      <c r="F35" s="52" t="n"/>
       <c r="G35" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H35" s="71" t="n"/>
+      <c r="H35" s="66" t="n"/>
       <c r="I35" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3389,25 +3233,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B36" s="57" t="n"/>
+      <c r="B36" s="52" t="n"/>
       <c r="C36" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D36" s="57" t="n"/>
+      <c r="D36" s="52" t="n"/>
       <c r="E36" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F36" s="57" t="n"/>
+      <c r="F36" s="52" t="n"/>
       <c r="G36" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H36" s="71" t="n"/>
+      <c r="H36" s="66" t="n"/>
       <c r="I36" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3454,25 +3298,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B37" s="57" t="n"/>
+      <c r="B37" s="52" t="n"/>
       <c r="C37" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D37" s="57" t="n"/>
+      <c r="D37" s="52" t="n"/>
       <c r="E37" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F37" s="57" t="n"/>
+      <c r="F37" s="52" t="n"/>
       <c r="G37" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H37" s="71" t="n"/>
+      <c r="H37" s="66" t="n"/>
       <c r="I37" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3519,25 +3363,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B38" s="57" t="n"/>
+      <c r="B38" s="52" t="n"/>
       <c r="C38" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D38" s="57" t="n"/>
+      <c r="D38" s="52" t="n"/>
       <c r="E38" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F38" s="57" t="n"/>
+      <c r="F38" s="52" t="n"/>
       <c r="G38" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H38" s="71" t="n"/>
+      <c r="H38" s="66" t="n"/>
       <c r="I38" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3584,25 +3428,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B39" s="57" t="n"/>
+      <c r="B39" s="52" t="n"/>
       <c r="C39" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D39" s="57" t="n"/>
+      <c r="D39" s="52" t="n"/>
       <c r="E39" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F39" s="57" t="n"/>
+      <c r="F39" s="52" t="n"/>
       <c r="G39" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H39" s="71" t="n"/>
+      <c r="H39" s="66" t="n"/>
       <c r="I39" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3654,25 +3498,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B40" s="57" t="n"/>
+      <c r="B40" s="52" t="n"/>
       <c r="C40" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D40" s="57" t="n"/>
+      <c r="D40" s="52" t="n"/>
       <c r="E40" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F40" s="57" t="n"/>
+      <c r="F40" s="52" t="n"/>
       <c r="G40" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H40" s="71" t="n"/>
+      <c r="H40" s="66" t="n"/>
       <c r="I40" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3724,25 +3568,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B41" s="57" t="n"/>
+      <c r="B41" s="52" t="n"/>
       <c r="C41" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D41" s="57" t="n"/>
+      <c r="D41" s="52" t="n"/>
       <c r="E41" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F41" s="57" t="n"/>
+      <c r="F41" s="52" t="n"/>
       <c r="G41" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H41" s="71" t="n"/>
+      <c r="H41" s="66" t="n"/>
       <c r="I41" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3794,25 +3638,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B42" s="57" t="n"/>
+      <c r="B42" s="52" t="n"/>
       <c r="C42" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D42" s="57" t="n"/>
+      <c r="D42" s="52" t="n"/>
       <c r="E42" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F42" s="57" t="n"/>
+      <c r="F42" s="52" t="n"/>
       <c r="G42" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H42" s="71" t="n"/>
+      <c r="H42" s="66" t="n"/>
       <c r="I42" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3864,25 +3708,25 @@
           <t>U.s</t>
         </is>
       </c>
-      <c r="B43" s="57" t="n"/>
+      <c r="B43" s="52" t="n"/>
       <c r="C43" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D43" s="57" t="n"/>
+      <c r="D43" s="52" t="n"/>
       <c r="E43" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F43" s="57" t="n"/>
+      <c r="F43" s="52" t="n"/>
       <c r="G43" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H43" s="71" t="n"/>
+      <c r="H43" s="66" t="n"/>
       <c r="I43" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -3934,7 +3778,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B44" s="57" t="n">
+      <c r="B44" s="52" t="n">
         <v>220</v>
       </c>
       <c r="C44" s="31" t="inlineStr">
@@ -3942,7 +3786,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D44" s="57" t="n">
+      <c r="D44" s="52" t="n">
         <v>79</v>
       </c>
       <c r="E44" s="31" t="inlineStr">
@@ -3950,7 +3794,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F44" s="57" t="n">
+      <c r="F44" s="52" t="n">
         <v>25</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
@@ -3958,7 +3802,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H44" s="71" t="n">
+      <c r="H44" s="66" t="n">
         <v>3.75</v>
       </c>
       <c r="I44" s="31" t="inlineStr">
@@ -4017,7 +3861,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="52" t="n">
         <v>220</v>
       </c>
       <c r="C45" s="31" t="inlineStr">
@@ -4025,7 +3869,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D45" s="57" t="n">
+      <c r="D45" s="52" t="n">
         <v>79</v>
       </c>
       <c r="E45" s="31" t="inlineStr">
@@ -4033,7 +3877,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F45" s="57" t="n">
+      <c r="F45" s="52" t="n">
         <v>25</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
@@ -4041,7 +3885,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H45" s="71" t="n">
+      <c r="H45" s="66" t="n">
         <v>4.75</v>
       </c>
       <c r="I45" s="31" t="inlineStr">
@@ -4095,7 +3939,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="52" t="n">
         <v>100</v>
       </c>
       <c r="C46" s="31" t="inlineStr">
@@ -4103,7 +3947,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D46" s="57" t="n">
+      <c r="D46" s="52" t="n">
         <v>40</v>
       </c>
       <c r="E46" s="31" t="inlineStr">
@@ -4111,7 +3955,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F46" s="57" t="n">
+      <c r="F46" s="52" t="n">
         <v>15</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
@@ -4119,7 +3963,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H46" s="71" t="n">
+      <c r="H46" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="31" t="inlineStr">
@@ -4173,7 +4017,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B47" s="57" t="n">
+      <c r="B47" s="52" t="n">
         <v>100</v>
       </c>
       <c r="C47" s="31" t="inlineStr">
@@ -4181,7 +4025,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D47" s="57" t="n">
+      <c r="D47" s="52" t="n">
         <v>40</v>
       </c>
       <c r="E47" s="31" t="inlineStr">
@@ -4189,7 +4033,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F47" s="57" t="n">
+      <c r="F47" s="52" t="n">
         <v>15</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
@@ -4197,7 +4041,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H47" s="71" t="n">
+      <c r="H47" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I47" s="31" t="inlineStr">
@@ -4251,7 +4095,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B48" s="57" t="n">
+      <c r="B48" s="52" t="n">
         <v>100</v>
       </c>
       <c r="C48" s="31" t="inlineStr">
@@ -4259,7 +4103,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D48" s="57" t="n">
+      <c r="D48" s="52" t="n">
         <v>40</v>
       </c>
       <c r="E48" s="31" t="inlineStr">
@@ -4267,7 +4111,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F48" s="57" t="n">
+      <c r="F48" s="52" t="n">
         <v>15</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
@@ -4275,7 +4119,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H48" s="71" t="n">
+      <c r="H48" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="31" t="inlineStr">
@@ -4329,7 +4173,7 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B49" s="57" t="n">
+      <c r="B49" s="52" t="n">
         <v>100</v>
       </c>
       <c r="C49" s="31" t="inlineStr">
@@ -4337,7 +4181,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D49" s="57" t="n">
+      <c r="D49" s="52" t="n">
         <v>40</v>
       </c>
       <c r="E49" s="31" t="inlineStr">
@@ -4345,7 +4189,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F49" s="57" t="n">
+      <c r="F49" s="52" t="n">
         <v>15</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
@@ -4353,7 +4197,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H49" s="71" t="n">
+      <c r="H49" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="31" t="inlineStr">
@@ -4407,41 +4251,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B50" s="57" t="n">
-        <v>220</v>
-      </c>
+      <c r="B50" s="52" t="n"/>
       <c r="C50" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D50" s="57" t="n">
-        <v>79</v>
-      </c>
+      <c r="D50" s="52" t="n"/>
       <c r="E50" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F50" s="57" t="n">
-        <v>25</v>
-      </c>
+      <c r="F50" s="52" t="n"/>
       <c r="G50" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H50" s="71" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="H50" s="66" t="n"/>
       <c r="I50" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J50" s="31" t="n">
-        <v>42.85</v>
-      </c>
+      <c r="J50" s="31" t="n"/>
       <c r="K50" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4468,9 +4302,6 @@
         <f>O50*6*L50</f>
         <v/>
       </c>
-      <c r="Q50" t="n">
-        <v>1004.07</v>
-      </c>
       <c r="R50" s="2" t="n">
         <v>4</v>
       </c>
@@ -4485,41 +4316,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B51" s="57" t="n">
-        <v>220</v>
-      </c>
+      <c r="B51" s="52" t="n"/>
       <c r="C51" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D51" s="57" t="n">
-        <v>79</v>
-      </c>
+      <c r="D51" s="52" t="n"/>
       <c r="E51" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F51" s="57" t="n">
-        <v>25</v>
-      </c>
+      <c r="F51" s="52" t="n"/>
       <c r="G51" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H51" s="71" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="H51" s="66" t="n"/>
       <c r="I51" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J51" s="31" t="n">
-        <v>8.379799999999999</v>
-      </c>
+      <c r="J51" s="31" t="n"/>
       <c r="K51" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4546,9 +4367,6 @@
         <f>O51*6*L51</f>
         <v/>
       </c>
-      <c r="Q51" t="n">
-        <v>243.72</v>
-      </c>
       <c r="R51" s="2" t="n">
         <v>4</v>
       </c>
@@ -4563,41 +4381,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B52" s="57" t="n">
-        <v>100</v>
-      </c>
+      <c r="B52" s="52" t="n"/>
       <c r="C52" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D52" s="57" t="n">
-        <v>40</v>
-      </c>
+      <c r="D52" s="52" t="n"/>
       <c r="E52" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F52" s="57" t="n">
-        <v>15</v>
-      </c>
+      <c r="F52" s="52" t="n"/>
       <c r="G52" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H52" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H52" s="66" t="n"/>
       <c r="I52" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J52" s="31" t="n">
-        <v>50</v>
-      </c>
+      <c r="J52" s="31" t="n"/>
       <c r="K52" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4624,9 +4432,6 @@
         <f>O52*6*L52</f>
         <v/>
       </c>
-      <c r="Q52" t="n">
-        <v>199.39</v>
-      </c>
       <c r="R52" s="2" t="n">
         <v>4</v>
       </c>
@@ -4641,41 +4446,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B53" s="57" t="n">
-        <v>100</v>
-      </c>
+      <c r="B53" s="52" t="n"/>
       <c r="C53" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D53" s="57" t="n">
-        <v>40</v>
-      </c>
+      <c r="D53" s="52" t="n"/>
       <c r="E53" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F53" s="57" t="n">
-        <v>15</v>
-      </c>
+      <c r="F53" s="52" t="n"/>
       <c r="G53" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H53" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H53" s="66" t="n"/>
       <c r="I53" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J53" s="31" t="n">
-        <v>250.5</v>
-      </c>
+      <c r="J53" s="31" t="n"/>
       <c r="K53" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4702,9 +4497,6 @@
         <f>O53*6*L53</f>
         <v/>
       </c>
-      <c r="Q53" t="n">
-        <v>762.97</v>
-      </c>
       <c r="R53" s="2" t="n">
         <v>4</v>
       </c>
@@ -4719,41 +4511,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B54" s="57" t="n">
-        <v>100</v>
-      </c>
+      <c r="B54" s="52" t="n"/>
       <c r="C54" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D54" s="57" t="n">
-        <v>40</v>
-      </c>
+      <c r="D54" s="52" t="n"/>
       <c r="E54" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F54" s="57" t="n">
-        <v>15</v>
-      </c>
+      <c r="F54" s="52" t="n"/>
       <c r="G54" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H54" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H54" s="66" t="n"/>
       <c r="I54" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J54" s="31" t="n">
-        <v>25</v>
-      </c>
+      <c r="J54" s="31" t="n"/>
       <c r="K54" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4780,9 +4562,6 @@
         <f>O54*6*L54</f>
         <v/>
       </c>
-      <c r="Q54" t="n">
-        <v>152.29</v>
-      </c>
       <c r="R54" s="2" t="n">
         <v>4</v>
       </c>
@@ -4797,41 +4576,31 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B55" s="57" t="n">
-        <v>100</v>
-      </c>
+      <c r="B55" s="52" t="n"/>
       <c r="C55" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D55" s="57" t="n">
-        <v>40</v>
-      </c>
+      <c r="D55" s="52" t="n"/>
       <c r="E55" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F55" s="57" t="n">
-        <v>15</v>
-      </c>
+      <c r="F55" s="52" t="n"/>
       <c r="G55" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H55" s="71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H55" s="66" t="n"/>
       <c r="I55" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J55" s="31" t="n">
-        <v>5.9663</v>
-      </c>
+      <c r="J55" s="31" t="n"/>
       <c r="K55" s="31" t="inlineStr">
         <is>
           <t>m</t>
@@ -4858,9 +4627,6 @@
         <f>O55*6*L55</f>
         <v/>
       </c>
-      <c r="Q55" t="n">
-        <v>36.34</v>
-      </c>
       <c r="R55" s="2" t="n">
         <v>4</v>
       </c>
@@ -4875,25 +4641,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B56" s="57" t="n"/>
+      <c r="B56" s="52" t="n"/>
       <c r="C56" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D56" s="57" t="n"/>
+      <c r="D56" s="52" t="n"/>
       <c r="E56" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F56" s="57" t="n"/>
+      <c r="F56" s="52" t="n"/>
       <c r="G56" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H56" s="71" t="n"/>
+      <c r="H56" s="66" t="n"/>
       <c r="I56" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -4940,25 +4706,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B57" s="57" t="n"/>
+      <c r="B57" s="52" t="n"/>
       <c r="C57" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D57" s="57" t="n"/>
+      <c r="D57" s="52" t="n"/>
       <c r="E57" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F57" s="57" t="n"/>
+      <c r="F57" s="52" t="n"/>
       <c r="G57" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H57" s="71" t="n"/>
+      <c r="H57" s="66" t="n"/>
       <c r="I57" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5005,25 +4771,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B58" s="57" t="n"/>
+      <c r="B58" s="52" t="n"/>
       <c r="C58" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D58" s="57" t="n"/>
+      <c r="D58" s="52" t="n"/>
       <c r="E58" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F58" s="57" t="n"/>
+      <c r="F58" s="52" t="n"/>
       <c r="G58" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H58" s="71" t="n"/>
+      <c r="H58" s="66" t="n"/>
       <c r="I58" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5070,25 +4836,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B59" s="57" t="n"/>
+      <c r="B59" s="52" t="n"/>
       <c r="C59" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D59" s="57" t="n"/>
+      <c r="D59" s="52" t="n"/>
       <c r="E59" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F59" s="57" t="n"/>
+      <c r="F59" s="52" t="n"/>
       <c r="G59" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H59" s="71" t="n"/>
+      <c r="H59" s="66" t="n"/>
       <c r="I59" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5140,25 +4906,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B60" s="57" t="n"/>
+      <c r="B60" s="52" t="n"/>
       <c r="C60" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D60" s="57" t="n"/>
+      <c r="D60" s="52" t="n"/>
       <c r="E60" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F60" s="57" t="n"/>
+      <c r="F60" s="52" t="n"/>
       <c r="G60" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H60" s="71" t="n"/>
+      <c r="H60" s="66" t="n"/>
       <c r="I60" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5210,25 +4976,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B61" s="57" t="n"/>
+      <c r="B61" s="52" t="n"/>
       <c r="C61" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D61" s="57" t="n"/>
+      <c r="D61" s="52" t="n"/>
       <c r="E61" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F61" s="57" t="n"/>
+      <c r="F61" s="52" t="n"/>
       <c r="G61" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H61" s="71" t="n"/>
+      <c r="H61" s="66" t="n"/>
       <c r="I61" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5280,25 +5046,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B62" s="57" t="n"/>
+      <c r="B62" s="52" t="n"/>
       <c r="C62" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D62" s="57" t="n"/>
+      <c r="D62" s="52" t="n"/>
       <c r="E62" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F62" s="57" t="n"/>
+      <c r="F62" s="52" t="n"/>
       <c r="G62" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H62" s="71" t="n"/>
+      <c r="H62" s="66" t="n"/>
       <c r="I62" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5345,25 +5111,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B63" s="57" t="n"/>
+      <c r="B63" s="52" t="n"/>
       <c r="C63" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D63" s="57" t="n"/>
+      <c r="D63" s="52" t="n"/>
       <c r="E63" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F63" s="57" t="n"/>
+      <c r="F63" s="52" t="n"/>
       <c r="G63" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H63" s="71" t="n"/>
+      <c r="H63" s="66" t="n"/>
       <c r="I63" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5410,25 +5176,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B64" s="57" t="n"/>
+      <c r="B64" s="52" t="n"/>
       <c r="C64" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D64" s="57" t="n"/>
+      <c r="D64" s="52" t="n"/>
       <c r="E64" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F64" s="57" t="n"/>
+      <c r="F64" s="52" t="n"/>
       <c r="G64" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H64" s="71" t="n"/>
+      <c r="H64" s="66" t="n"/>
       <c r="I64" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5475,25 +5241,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B65" s="57" t="n"/>
+      <c r="B65" s="52" t="n"/>
       <c r="C65" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D65" s="57" t="n"/>
+      <c r="D65" s="52" t="n"/>
       <c r="E65" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F65" s="57" t="n"/>
+      <c r="F65" s="52" t="n"/>
       <c r="G65" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H65" s="71" t="n"/>
+      <c r="H65" s="66" t="n"/>
       <c r="I65" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5540,25 +5306,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B66" s="57" t="n"/>
+      <c r="B66" s="52" t="n"/>
       <c r="C66" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D66" s="57" t="n"/>
+      <c r="D66" s="52" t="n"/>
       <c r="E66" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F66" s="57" t="n"/>
+      <c r="F66" s="52" t="n"/>
       <c r="G66" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H66" s="71" t="n"/>
+      <c r="H66" s="66" t="n"/>
       <c r="I66" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5605,25 +5371,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B67" s="57" t="n"/>
+      <c r="B67" s="52" t="n"/>
       <c r="C67" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D67" s="57" t="n"/>
+      <c r="D67" s="52" t="n"/>
       <c r="E67" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F67" s="57" t="n"/>
+      <c r="F67" s="52" t="n"/>
       <c r="G67" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H67" s="71" t="n"/>
+      <c r="H67" s="66" t="n"/>
       <c r="I67" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5670,25 +5436,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B68" s="57" t="n"/>
+      <c r="B68" s="52" t="n"/>
       <c r="C68" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D68" s="57" t="n"/>
+      <c r="D68" s="52" t="n"/>
       <c r="E68" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F68" s="57" t="n"/>
+      <c r="F68" s="52" t="n"/>
       <c r="G68" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H68" s="71" t="n"/>
+      <c r="H68" s="66" t="n"/>
       <c r="I68" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5735,25 +5501,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B69" s="57" t="n"/>
+      <c r="B69" s="52" t="n"/>
       <c r="C69" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D69" s="57" t="n"/>
+      <c r="D69" s="52" t="n"/>
       <c r="E69" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F69" s="57" t="n"/>
+      <c r="F69" s="52" t="n"/>
       <c r="G69" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H69" s="71" t="n"/>
+      <c r="H69" s="66" t="n"/>
       <c r="I69" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5800,25 +5566,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B70" s="57" t="n"/>
+      <c r="B70" s="52" t="n"/>
       <c r="C70" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D70" s="57" t="n"/>
+      <c r="D70" s="52" t="n"/>
       <c r="E70" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F70" s="57" t="n"/>
+      <c r="F70" s="52" t="n"/>
       <c r="G70" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H70" s="71" t="n"/>
+      <c r="H70" s="66" t="n"/>
       <c r="I70" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5865,25 +5631,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B71" s="57" t="n"/>
+      <c r="B71" s="52" t="n"/>
       <c r="C71" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D71" s="57" t="n"/>
+      <c r="D71" s="52" t="n"/>
       <c r="E71" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F71" s="57" t="n"/>
+      <c r="F71" s="52" t="n"/>
       <c r="G71" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H71" s="71" t="n"/>
+      <c r="H71" s="66" t="n"/>
       <c r="I71" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5930,25 +5696,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B72" s="57" t="n"/>
+      <c r="B72" s="52" t="n"/>
       <c r="C72" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D72" s="57" t="n"/>
+      <c r="D72" s="52" t="n"/>
       <c r="E72" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F72" s="57" t="n"/>
+      <c r="F72" s="52" t="n"/>
       <c r="G72" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H72" s="71" t="n"/>
+      <c r="H72" s="66" t="n"/>
       <c r="I72" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -5989,25 +5755,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B73" s="57" t="n"/>
+      <c r="B73" s="52" t="n"/>
       <c r="C73" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D73" s="57" t="n"/>
+      <c r="D73" s="52" t="n"/>
       <c r="E73" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F73" s="57" t="n"/>
+      <c r="F73" s="52" t="n"/>
       <c r="G73" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H73" s="71" t="n"/>
+      <c r="H73" s="66" t="n"/>
       <c r="I73" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6048,25 +5814,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B74" s="57" t="n"/>
+      <c r="B74" s="52" t="n"/>
       <c r="C74" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D74" s="57" t="n"/>
+      <c r="D74" s="52" t="n"/>
       <c r="E74" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F74" s="57" t="n"/>
+      <c r="F74" s="52" t="n"/>
       <c r="G74" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H74" s="71" t="n"/>
+      <c r="H74" s="66" t="n"/>
       <c r="I74" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6107,25 +5873,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B75" s="57" t="n"/>
+      <c r="B75" s="52" t="n"/>
       <c r="C75" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D75" s="57" t="n"/>
+      <c r="D75" s="52" t="n"/>
       <c r="E75" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F75" s="57" t="n"/>
+      <c r="F75" s="52" t="n"/>
       <c r="G75" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H75" s="71" t="n"/>
+      <c r="H75" s="66" t="n"/>
       <c r="I75" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6166,25 +5932,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B76" s="57" t="n"/>
+      <c r="B76" s="52" t="n"/>
       <c r="C76" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D76" s="57" t="n"/>
+      <c r="D76" s="52" t="n"/>
       <c r="E76" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F76" s="57" t="n"/>
+      <c r="F76" s="52" t="n"/>
       <c r="G76" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H76" s="71" t="n"/>
+      <c r="H76" s="66" t="n"/>
       <c r="I76" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6225,25 +5991,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B77" s="57" t="n"/>
+      <c r="B77" s="52" t="n"/>
       <c r="C77" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D77" s="57" t="n"/>
+      <c r="D77" s="52" t="n"/>
       <c r="E77" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F77" s="57" t="n"/>
+      <c r="F77" s="52" t="n"/>
       <c r="G77" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H77" s="71" t="n"/>
+      <c r="H77" s="66" t="n"/>
       <c r="I77" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6284,25 +6050,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B78" s="57" t="n"/>
+      <c r="B78" s="52" t="n"/>
       <c r="C78" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D78" s="57" t="n"/>
+      <c r="D78" s="52" t="n"/>
       <c r="E78" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F78" s="57" t="n"/>
+      <c r="F78" s="52" t="n"/>
       <c r="G78" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H78" s="71" t="n"/>
+      <c r="H78" s="66" t="n"/>
       <c r="I78" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6343,25 +6109,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B79" s="57" t="n"/>
+      <c r="B79" s="52" t="n"/>
       <c r="C79" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D79" s="57" t="n"/>
+      <c r="D79" s="52" t="n"/>
       <c r="E79" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F79" s="57" t="n"/>
+      <c r="F79" s="52" t="n"/>
       <c r="G79" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H79" s="71" t="n"/>
+      <c r="H79" s="66" t="n"/>
       <c r="I79" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6402,25 +6168,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B80" s="57" t="n"/>
+      <c r="B80" s="52" t="n"/>
       <c r="C80" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D80" s="57" t="n"/>
+      <c r="D80" s="52" t="n"/>
       <c r="E80" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F80" s="57" t="n"/>
+      <c r="F80" s="52" t="n"/>
       <c r="G80" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H80" s="71" t="n"/>
+      <c r="H80" s="66" t="n"/>
       <c r="I80" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6461,25 +6227,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B81" s="57" t="n"/>
+      <c r="B81" s="52" t="n"/>
       <c r="C81" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D81" s="57" t="n"/>
+      <c r="D81" s="52" t="n"/>
       <c r="E81" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F81" s="57" t="n"/>
+      <c r="F81" s="52" t="n"/>
       <c r="G81" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H81" s="71" t="n"/>
+      <c r="H81" s="66" t="n"/>
       <c r="I81" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6520,25 +6286,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B82" s="57" t="n"/>
+      <c r="B82" s="52" t="n"/>
       <c r="C82" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D82" s="57" t="n"/>
+      <c r="D82" s="52" t="n"/>
       <c r="E82" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F82" s="57" t="n"/>
+      <c r="F82" s="52" t="n"/>
       <c r="G82" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H82" s="71" t="n"/>
+      <c r="H82" s="66" t="n"/>
       <c r="I82" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6588,25 +6354,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B83" s="57" t="n"/>
+      <c r="B83" s="52" t="n"/>
       <c r="C83" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D83" s="57" t="n"/>
+      <c r="D83" s="52" t="n"/>
       <c r="E83" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F83" s="57" t="n"/>
+      <c r="F83" s="52" t="n"/>
       <c r="G83" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H83" s="71" t="n"/>
+      <c r="H83" s="66" t="n"/>
       <c r="I83" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6651,25 +6417,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B84" s="57" t="n"/>
+      <c r="B84" s="52" t="n"/>
       <c r="C84" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D84" s="57" t="n"/>
+      <c r="D84" s="52" t="n"/>
       <c r="E84" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F84" s="57" t="n"/>
+      <c r="F84" s="52" t="n"/>
       <c r="G84" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H84" s="71" t="n"/>
+      <c r="H84" s="66" t="n"/>
       <c r="I84" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6714,25 +6480,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B85" s="57" t="n"/>
+      <c r="B85" s="52" t="n"/>
       <c r="C85" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D85" s="57" t="n"/>
+      <c r="D85" s="52" t="n"/>
       <c r="E85" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F85" s="57" t="n"/>
+      <c r="F85" s="52" t="n"/>
       <c r="G85" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H85" s="71" t="n"/>
+      <c r="H85" s="66" t="n"/>
       <c r="I85" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6777,25 +6543,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B86" s="57" t="n"/>
+      <c r="B86" s="52" t="n"/>
       <c r="C86" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D86" s="57" t="n"/>
+      <c r="D86" s="52" t="n"/>
       <c r="E86" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F86" s="57" t="n"/>
+      <c r="F86" s="52" t="n"/>
       <c r="G86" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H86" s="71" t="n"/>
+      <c r="H86" s="66" t="n"/>
       <c r="I86" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6840,25 +6606,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B87" s="57" t="n"/>
+      <c r="B87" s="52" t="n"/>
       <c r="C87" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D87" s="57" t="n"/>
+      <c r="D87" s="52" t="n"/>
       <c r="E87" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F87" s="57" t="n"/>
+      <c r="F87" s="52" t="n"/>
       <c r="G87" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H87" s="71" t="n"/>
+      <c r="H87" s="66" t="n"/>
       <c r="I87" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6903,25 +6669,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B88" s="57" t="n"/>
+      <c r="B88" s="52" t="n"/>
       <c r="C88" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D88" s="57" t="n"/>
+      <c r="D88" s="52" t="n"/>
       <c r="E88" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F88" s="57" t="n"/>
+      <c r="F88" s="52" t="n"/>
       <c r="G88" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H88" s="71" t="n"/>
+      <c r="H88" s="66" t="n"/>
       <c r="I88" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -6966,25 +6732,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B89" s="57" t="n"/>
+      <c r="B89" s="52" t="n"/>
       <c r="C89" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D89" s="57" t="n"/>
+      <c r="D89" s="52" t="n"/>
       <c r="E89" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F89" s="57" t="n"/>
+      <c r="F89" s="52" t="n"/>
       <c r="G89" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H89" s="71" t="n"/>
+      <c r="H89" s="66" t="n"/>
       <c r="I89" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7029,25 +6795,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B90" s="57" t="n"/>
+      <c r="B90" s="52" t="n"/>
       <c r="C90" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D90" s="57" t="n"/>
+      <c r="D90" s="52" t="n"/>
       <c r="E90" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F90" s="57" t="n"/>
+      <c r="F90" s="52" t="n"/>
       <c r="G90" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H90" s="71" t="n"/>
+      <c r="H90" s="66" t="n"/>
       <c r="I90" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7092,25 +6858,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B91" s="57" t="n"/>
+      <c r="B91" s="52" t="n"/>
       <c r="C91" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D91" s="57" t="n"/>
+      <c r="D91" s="52" t="n"/>
       <c r="E91" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F91" s="57" t="n"/>
+      <c r="F91" s="52" t="n"/>
       <c r="G91" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H91" s="71" t="n"/>
+      <c r="H91" s="66" t="n"/>
       <c r="I91" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7155,25 +6921,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B92" s="57" t="n"/>
+      <c r="B92" s="52" t="n"/>
       <c r="C92" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D92" s="57" t="n"/>
+      <c r="D92" s="52" t="n"/>
       <c r="E92" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F92" s="57" t="n"/>
+      <c r="F92" s="52" t="n"/>
       <c r="G92" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H92" s="71" t="n"/>
+      <c r="H92" s="66" t="n"/>
       <c r="I92" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7214,25 +6980,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B93" s="57" t="n"/>
+      <c r="B93" s="52" t="n"/>
       <c r="C93" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D93" s="57" t="n"/>
+      <c r="D93" s="52" t="n"/>
       <c r="E93" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F93" s="57" t="n"/>
+      <c r="F93" s="52" t="n"/>
       <c r="G93" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H93" s="71" t="n"/>
+      <c r="H93" s="66" t="n"/>
       <c r="I93" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7273,25 +7039,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B94" s="57" t="n"/>
+      <c r="B94" s="52" t="n"/>
       <c r="C94" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D94" s="57" t="n"/>
+      <c r="D94" s="52" t="n"/>
       <c r="E94" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F94" s="57" t="n"/>
+      <c r="F94" s="52" t="n"/>
       <c r="G94" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H94" s="71" t="n"/>
+      <c r="H94" s="66" t="n"/>
       <c r="I94" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7332,25 +7098,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B95" s="57" t="n"/>
+      <c r="B95" s="52" t="n"/>
       <c r="C95" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D95" s="57" t="n"/>
+      <c r="D95" s="52" t="n"/>
       <c r="E95" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F95" s="57" t="n"/>
+      <c r="F95" s="52" t="n"/>
       <c r="G95" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H95" s="71" t="n"/>
+      <c r="H95" s="66" t="n"/>
       <c r="I95" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7391,25 +7157,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B96" s="57" t="n"/>
+      <c r="B96" s="52" t="n"/>
       <c r="C96" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D96" s="57" t="n"/>
+      <c r="D96" s="52" t="n"/>
       <c r="E96" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F96" s="57" t="n"/>
+      <c r="F96" s="52" t="n"/>
       <c r="G96" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H96" s="71" t="n"/>
+      <c r="H96" s="66" t="n"/>
       <c r="I96" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7454,25 +7220,25 @@
           <t>U.e</t>
         </is>
       </c>
-      <c r="B97" s="57" t="n"/>
+      <c r="B97" s="52" t="n"/>
       <c r="C97" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D97" s="57" t="n"/>
+      <c r="D97" s="52" t="n"/>
       <c r="E97" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F97" s="57" t="n"/>
+      <c r="F97" s="52" t="n"/>
       <c r="G97" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H97" s="71" t="n"/>
+      <c r="H97" s="66" t="n"/>
       <c r="I97" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7517,17 +7283,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B98" s="57" t="n"/>
+      <c r="B98" s="52" t="n"/>
       <c r="C98" s="31" t="n"/>
-      <c r="D98" s="57" t="n"/>
+      <c r="D98" s="52" t="n"/>
       <c r="E98" s="31" t="n"/>
-      <c r="F98" s="57" t="n"/>
+      <c r="F98" s="52" t="n"/>
       <c r="G98" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H98" s="71" t="n"/>
+      <c r="H98" s="66" t="n"/>
       <c r="I98" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7572,17 +7338,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B99" s="57" t="n"/>
+      <c r="B99" s="52" t="n"/>
       <c r="C99" s="31" t="n"/>
-      <c r="D99" s="57" t="n"/>
+      <c r="D99" s="52" t="n"/>
       <c r="E99" s="31" t="n"/>
-      <c r="F99" s="57" t="n"/>
+      <c r="F99" s="52" t="n"/>
       <c r="G99" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H99" s="71" t="n"/>
+      <c r="H99" s="66" t="n"/>
       <c r="I99" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7627,17 +7393,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B100" s="57" t="n"/>
+      <c r="B100" s="52" t="n"/>
       <c r="C100" s="31" t="n"/>
-      <c r="D100" s="57" t="n"/>
+      <c r="D100" s="52" t="n"/>
       <c r="E100" s="31" t="n"/>
-      <c r="F100" s="57" t="n"/>
+      <c r="F100" s="52" t="n"/>
       <c r="G100" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H100" s="71" t="n"/>
+      <c r="H100" s="66" t="n"/>
       <c r="I100" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7682,17 +7448,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B101" s="57" t="n"/>
+      <c r="B101" s="52" t="n"/>
       <c r="C101" s="31" t="n"/>
-      <c r="D101" s="57" t="n"/>
+      <c r="D101" s="52" t="n"/>
       <c r="E101" s="31" t="n"/>
-      <c r="F101" s="57" t="n"/>
+      <c r="F101" s="52" t="n"/>
       <c r="G101" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H101" s="71" t="n"/>
+      <c r="H101" s="66" t="n"/>
       <c r="I101" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7737,17 +7503,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B102" s="57" t="n"/>
+      <c r="B102" s="52" t="n"/>
       <c r="C102" s="31" t="n"/>
-      <c r="D102" s="57" t="n"/>
+      <c r="D102" s="52" t="n"/>
       <c r="E102" s="31" t="n"/>
-      <c r="F102" s="57" t="n"/>
+      <c r="F102" s="52" t="n"/>
       <c r="G102" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H102" s="71" t="n"/>
+      <c r="H102" s="66" t="n"/>
       <c r="I102" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7792,17 +7558,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B103" s="57" t="n"/>
+      <c r="B103" s="52" t="n"/>
       <c r="C103" s="31" t="n"/>
-      <c r="D103" s="57" t="n"/>
+      <c r="D103" s="52" t="n"/>
       <c r="E103" s="31" t="n"/>
-      <c r="F103" s="57" t="n"/>
+      <c r="F103" s="52" t="n"/>
       <c r="G103" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H103" s="71" t="n"/>
+      <c r="H103" s="66" t="n"/>
       <c r="I103" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7847,17 +7613,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B104" s="57" t="n"/>
+      <c r="B104" s="52" t="n"/>
       <c r="C104" s="31" t="n"/>
-      <c r="D104" s="57" t="n"/>
+      <c r="D104" s="52" t="n"/>
       <c r="E104" s="31" t="n"/>
-      <c r="F104" s="57" t="n"/>
+      <c r="F104" s="52" t="n"/>
       <c r="G104" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H104" s="71" t="n"/>
+      <c r="H104" s="66" t="n"/>
       <c r="I104" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7902,17 +7668,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B105" s="57" t="n"/>
+      <c r="B105" s="52" t="n"/>
       <c r="C105" s="31" t="n"/>
-      <c r="D105" s="57" t="n"/>
+      <c r="D105" s="52" t="n"/>
       <c r="E105" s="31" t="n"/>
-      <c r="F105" s="57" t="n"/>
+      <c r="F105" s="52" t="n"/>
       <c r="G105" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H105" s="71" t="n"/>
+      <c r="H105" s="66" t="n"/>
       <c r="I105" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -7957,17 +7723,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B106" s="57" t="n"/>
+      <c r="B106" s="52" t="n"/>
       <c r="C106" s="31" t="n"/>
-      <c r="D106" s="57" t="n"/>
+      <c r="D106" s="52" t="n"/>
       <c r="E106" s="31" t="n"/>
-      <c r="F106" s="57" t="n"/>
+      <c r="F106" s="52" t="n"/>
       <c r="G106" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H106" s="71" t="n"/>
+      <c r="H106" s="66" t="n"/>
       <c r="I106" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8012,17 +7778,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B107" s="57" t="n"/>
+      <c r="B107" s="52" t="n"/>
       <c r="C107" s="31" t="n"/>
-      <c r="D107" s="57" t="n"/>
+      <c r="D107" s="52" t="n"/>
       <c r="E107" s="31" t="n"/>
-      <c r="F107" s="57" t="n"/>
+      <c r="F107" s="52" t="n"/>
       <c r="G107" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H107" s="71" t="n"/>
+      <c r="H107" s="66" t="n"/>
       <c r="I107" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8067,17 +7833,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B108" s="57" t="n"/>
+      <c r="B108" s="52" t="n"/>
       <c r="C108" s="31" t="n"/>
-      <c r="D108" s="57" t="n"/>
+      <c r="D108" s="52" t="n"/>
       <c r="E108" s="31" t="n"/>
-      <c r="F108" s="57" t="n"/>
+      <c r="F108" s="52" t="n"/>
       <c r="G108" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H108" s="71" t="n"/>
+      <c r="H108" s="66" t="n"/>
       <c r="I108" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8122,17 +7888,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B109" s="57" t="n"/>
+      <c r="B109" s="52" t="n"/>
       <c r="C109" s="31" t="n"/>
-      <c r="D109" s="57" t="n"/>
+      <c r="D109" s="52" t="n"/>
       <c r="E109" s="31" t="n"/>
-      <c r="F109" s="57" t="n"/>
+      <c r="F109" s="52" t="n"/>
       <c r="G109" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H109" s="71" t="n"/>
+      <c r="H109" s="66" t="n"/>
       <c r="I109" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8177,17 +7943,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B110" s="57" t="n"/>
+      <c r="B110" s="52" t="n"/>
       <c r="C110" s="31" t="n"/>
-      <c r="D110" s="57" t="n"/>
+      <c r="D110" s="52" t="n"/>
       <c r="E110" s="31" t="n"/>
-      <c r="F110" s="57" t="n"/>
+      <c r="F110" s="52" t="n"/>
       <c r="G110" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H110" s="71" t="n"/>
+      <c r="H110" s="66" t="n"/>
       <c r="I110" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8232,17 +7998,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B111" s="57" t="n"/>
+      <c r="B111" s="52" t="n"/>
       <c r="C111" s="31" t="n"/>
-      <c r="D111" s="57" t="n"/>
+      <c r="D111" s="52" t="n"/>
       <c r="E111" s="31" t="n"/>
-      <c r="F111" s="57" t="n"/>
+      <c r="F111" s="52" t="n"/>
       <c r="G111" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H111" s="71" t="n"/>
+      <c r="H111" s="66" t="n"/>
       <c r="I111" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8287,17 +8053,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B112" s="57" t="n"/>
+      <c r="B112" s="52" t="n"/>
       <c r="C112" s="31" t="n"/>
-      <c r="D112" s="57" t="n"/>
+      <c r="D112" s="52" t="n"/>
       <c r="E112" s="31" t="n"/>
-      <c r="F112" s="57" t="n"/>
+      <c r="F112" s="52" t="n"/>
       <c r="G112" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H112" s="71" t="n"/>
+      <c r="H112" s="66" t="n"/>
       <c r="I112" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8342,17 +8108,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B113" s="57" t="n"/>
+      <c r="B113" s="52" t="n"/>
       <c r="C113" s="31" t="n"/>
-      <c r="D113" s="57" t="n"/>
+      <c r="D113" s="52" t="n"/>
       <c r="E113" s="31" t="n"/>
-      <c r="F113" s="57" t="n"/>
+      <c r="F113" s="52" t="n"/>
       <c r="G113" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H113" s="71" t="n"/>
+      <c r="H113" s="66" t="n"/>
       <c r="I113" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8397,17 +8163,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B114" s="57" t="n"/>
+      <c r="B114" s="52" t="n"/>
       <c r="C114" s="31" t="n"/>
-      <c r="D114" s="57" t="n"/>
+      <c r="D114" s="52" t="n"/>
       <c r="E114" s="31" t="n"/>
-      <c r="F114" s="57" t="n"/>
+      <c r="F114" s="52" t="n"/>
       <c r="G114" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H114" s="71" t="n"/>
+      <c r="H114" s="66" t="n"/>
       <c r="I114" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8452,17 +8218,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B115" s="57" t="n"/>
+      <c r="B115" s="52" t="n"/>
       <c r="C115" s="31" t="n"/>
-      <c r="D115" s="57" t="n"/>
+      <c r="D115" s="52" t="n"/>
       <c r="E115" s="31" t="n"/>
-      <c r="F115" s="57" t="n"/>
+      <c r="F115" s="52" t="n"/>
       <c r="G115" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H115" s="71" t="n"/>
+      <c r="H115" s="66" t="n"/>
       <c r="I115" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8507,17 +8273,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B116" s="57" t="n"/>
+      <c r="B116" s="52" t="n"/>
       <c r="C116" s="31" t="n"/>
-      <c r="D116" s="57" t="n"/>
+      <c r="D116" s="52" t="n"/>
       <c r="E116" s="31" t="n"/>
-      <c r="F116" s="57" t="n"/>
+      <c r="F116" s="52" t="n"/>
       <c r="G116" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H116" s="71" t="n"/>
+      <c r="H116" s="66" t="n"/>
       <c r="I116" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8558,17 +8324,17 @@
           <t>L dobrado  de abas iguais</t>
         </is>
       </c>
-      <c r="B117" s="57" t="n"/>
+      <c r="B117" s="52" t="n"/>
       <c r="C117" s="31" t="n"/>
-      <c r="D117" s="57" t="n"/>
+      <c r="D117" s="52" t="n"/>
       <c r="E117" s="31" t="n"/>
-      <c r="F117" s="57" t="n"/>
+      <c r="F117" s="52" t="n"/>
       <c r="G117" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H117" s="71" t="n"/>
+      <c r="H117" s="66" t="n"/>
       <c r="I117" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8609,21 +8375,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B118" s="57" t="n"/>
+      <c r="B118" s="52" t="n"/>
       <c r="C118" s="31" t="n"/>
-      <c r="D118" s="57" t="n"/>
+      <c r="D118" s="52" t="n"/>
       <c r="E118" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F118" s="57" t="n"/>
+      <c r="F118" s="52" t="n"/>
       <c r="G118" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H118" s="71" t="n"/>
+      <c r="H118" s="66" t="n"/>
       <c r="I118" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8668,21 +8434,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B119" s="57" t="n"/>
+      <c r="B119" s="52" t="n"/>
       <c r="C119" s="31" t="n"/>
-      <c r="D119" s="57" t="n"/>
+      <c r="D119" s="52" t="n"/>
       <c r="E119" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F119" s="57" t="n"/>
+      <c r="F119" s="52" t="n"/>
       <c r="G119" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H119" s="71" t="n"/>
+      <c r="H119" s="66" t="n"/>
       <c r="I119" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8727,21 +8493,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B120" s="57" t="n"/>
+      <c r="B120" s="52" t="n"/>
       <c r="C120" s="31" t="n"/>
-      <c r="D120" s="57" t="n"/>
+      <c r="D120" s="52" t="n"/>
       <c r="E120" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F120" s="57" t="n"/>
+      <c r="F120" s="52" t="n"/>
       <c r="G120" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H120" s="71" t="n"/>
+      <c r="H120" s="66" t="n"/>
       <c r="I120" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8786,21 +8552,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B121" s="57" t="n"/>
+      <c r="B121" s="52" t="n"/>
       <c r="C121" s="31" t="n"/>
-      <c r="D121" s="57" t="n"/>
+      <c r="D121" s="52" t="n"/>
       <c r="E121" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F121" s="57" t="n"/>
+      <c r="F121" s="52" t="n"/>
       <c r="G121" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H121" s="71" t="n"/>
+      <c r="H121" s="66" t="n"/>
       <c r="I121" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8845,21 +8611,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B122" s="57" t="n"/>
+      <c r="B122" s="52" t="n"/>
       <c r="C122" s="31" t="n"/>
-      <c r="D122" s="57" t="n"/>
+      <c r="D122" s="52" t="n"/>
       <c r="E122" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F122" s="57" t="n"/>
+      <c r="F122" s="52" t="n"/>
       <c r="G122" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H122" s="71" t="n"/>
+      <c r="H122" s="66" t="n"/>
       <c r="I122" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8904,21 +8670,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B123" s="57" t="n"/>
+      <c r="B123" s="52" t="n"/>
       <c r="C123" s="31" t="n"/>
-      <c r="D123" s="57" t="n"/>
+      <c r="D123" s="52" t="n"/>
       <c r="E123" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F123" s="57" t="n"/>
+      <c r="F123" s="52" t="n"/>
       <c r="G123" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H123" s="71" t="n"/>
+      <c r="H123" s="66" t="n"/>
       <c r="I123" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -8963,21 +8729,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B124" s="57" t="n"/>
+      <c r="B124" s="52" t="n"/>
       <c r="C124" s="31" t="n"/>
-      <c r="D124" s="57" t="n"/>
+      <c r="D124" s="52" t="n"/>
       <c r="E124" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F124" s="57" t="n"/>
+      <c r="F124" s="52" t="n"/>
       <c r="G124" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H124" s="71" t="n"/>
+      <c r="H124" s="66" t="n"/>
       <c r="I124" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9022,21 +8788,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B125" s="57" t="n"/>
+      <c r="B125" s="52" t="n"/>
       <c r="C125" s="31" t="n"/>
-      <c r="D125" s="57" t="n"/>
+      <c r="D125" s="52" t="n"/>
       <c r="E125" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F125" s="57" t="n"/>
+      <c r="F125" s="52" t="n"/>
       <c r="G125" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H125" s="71" t="n"/>
+      <c r="H125" s="66" t="n"/>
       <c r="I125" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9081,21 +8847,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B126" s="57" t="n"/>
+      <c r="B126" s="52" t="n"/>
       <c r="C126" s="31" t="n"/>
-      <c r="D126" s="57" t="n"/>
+      <c r="D126" s="52" t="n"/>
       <c r="E126" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F126" s="57" t="n"/>
+      <c r="F126" s="52" t="n"/>
       <c r="G126" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H126" s="71" t="n"/>
+      <c r="H126" s="66" t="n"/>
       <c r="I126" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9140,21 +8906,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B127" s="57" t="n"/>
+      <c r="B127" s="52" t="n"/>
       <c r="C127" s="31" t="n"/>
-      <c r="D127" s="57" t="n"/>
+      <c r="D127" s="52" t="n"/>
       <c r="E127" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F127" s="57" t="n"/>
+      <c r="F127" s="52" t="n"/>
       <c r="G127" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H127" s="71" t="n"/>
+      <c r="H127" s="66" t="n"/>
       <c r="I127" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9199,21 +8965,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B128" s="57" t="n"/>
+      <c r="B128" s="52" t="n"/>
       <c r="C128" s="31" t="n"/>
-      <c r="D128" s="57" t="n"/>
+      <c r="D128" s="52" t="n"/>
       <c r="E128" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F128" s="57" t="n"/>
+      <c r="F128" s="52" t="n"/>
       <c r="G128" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H128" s="71" t="n"/>
+      <c r="H128" s="66" t="n"/>
       <c r="I128" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9258,21 +9024,21 @@
           <t>METALON</t>
         </is>
       </c>
-      <c r="B129" s="57" t="n"/>
+      <c r="B129" s="52" t="n"/>
       <c r="C129" s="31" t="n"/>
-      <c r="D129" s="57" t="n"/>
+      <c r="D129" s="52" t="n"/>
       <c r="E129" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F129" s="57" t="n"/>
+      <c r="F129" s="52" t="n"/>
       <c r="G129" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H129" s="71" t="n"/>
+      <c r="H129" s="66" t="n"/>
       <c r="I129" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9322,17 +9088,17 @@
           <t>CALHA CORTE</t>
         </is>
       </c>
-      <c r="B130" s="58" t="n"/>
+      <c r="B130" s="53" t="n"/>
       <c r="C130" s="46" t="n"/>
-      <c r="D130" s="57" t="n"/>
+      <c r="D130" s="52" t="n"/>
       <c r="E130" s="31" t="n"/>
-      <c r="F130" s="57" t="n"/>
+      <c r="F130" s="52" t="n"/>
       <c r="G130" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H130" s="71" t="n"/>
+      <c r="H130" s="66" t="n"/>
       <c r="I130" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9377,9 +9143,9 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B131" s="79" t="n"/>
-      <c r="C131" s="80" t="n"/>
-      <c r="D131" s="65" t="n">
+      <c r="B131" s="74" t="n"/>
+      <c r="C131" s="75" t="n"/>
+      <c r="D131" s="60" t="n">
         <v>40</v>
       </c>
       <c r="E131" s="31" t="inlineStr">
@@ -9387,7 +9153,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F131" s="57" t="n">
+      <c r="F131" s="52" t="n">
         <v>40</v>
       </c>
       <c r="G131" s="31" t="inlineStr">
@@ -9395,7 +9161,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H131" s="71" t="n">
+      <c r="H131" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I131" s="31" t="inlineStr">
@@ -9443,9 +9209,9 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B132" s="79" t="n"/>
-      <c r="C132" s="80" t="n"/>
-      <c r="D132" s="57" t="n">
+      <c r="B132" s="74" t="n"/>
+      <c r="C132" s="75" t="n"/>
+      <c r="D132" s="52" t="n">
         <v>30</v>
       </c>
       <c r="E132" s="31" t="inlineStr">
@@ -9453,7 +9219,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F132" s="57" t="n">
+      <c r="F132" s="52" t="n">
         <v>30</v>
       </c>
       <c r="G132" s="31" t="inlineStr">
@@ -9461,7 +9227,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H132" s="71" t="n">
+      <c r="H132" s="66" t="n">
         <v>2</v>
       </c>
       <c r="I132" s="31" t="inlineStr">
@@ -9509,21 +9275,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B133" s="79" t="n"/>
-      <c r="C133" s="80" t="n"/>
-      <c r="D133" s="57" t="n"/>
+      <c r="B133" s="74" t="n"/>
+      <c r="C133" s="75" t="n"/>
+      <c r="D133" s="52" t="n"/>
       <c r="E133" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F133" s="57" t="n"/>
+      <c r="F133" s="52" t="n"/>
       <c r="G133" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H133" s="71" t="n"/>
+      <c r="H133" s="66" t="n"/>
       <c r="I133" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9564,21 +9330,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B134" s="79" t="n"/>
-      <c r="C134" s="80" t="n"/>
-      <c r="D134" s="65" t="n"/>
+      <c r="B134" s="74" t="n"/>
+      <c r="C134" s="75" t="n"/>
+      <c r="D134" s="60" t="n"/>
       <c r="E134" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F134" s="57" t="n"/>
+      <c r="F134" s="52" t="n"/>
       <c r="G134" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H134" s="71" t="n"/>
+      <c r="H134" s="66" t="n"/>
       <c r="I134" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9619,21 +9385,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B135" s="79" t="n"/>
-      <c r="C135" s="80" t="n"/>
-      <c r="D135" s="57" t="n"/>
+      <c r="B135" s="74" t="n"/>
+      <c r="C135" s="75" t="n"/>
+      <c r="D135" s="52" t="n"/>
       <c r="E135" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F135" s="57" t="n"/>
+      <c r="F135" s="52" t="n"/>
       <c r="G135" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H135" s="71" t="n"/>
+      <c r="H135" s="66" t="n"/>
       <c r="I135" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9674,21 +9440,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B136" s="79" t="n"/>
-      <c r="C136" s="80" t="n"/>
-      <c r="D136" s="57" t="n"/>
+      <c r="B136" s="74" t="n"/>
+      <c r="C136" s="75" t="n"/>
+      <c r="D136" s="52" t="n"/>
       <c r="E136" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F136" s="57" t="n"/>
+      <c r="F136" s="52" t="n"/>
       <c r="G136" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H136" s="71" t="n"/>
+      <c r="H136" s="66" t="n"/>
       <c r="I136" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9729,21 +9495,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B137" s="79" t="n"/>
-      <c r="C137" s="80" t="n"/>
-      <c r="D137" s="65" t="n"/>
+      <c r="B137" s="74" t="n"/>
+      <c r="C137" s="75" t="n"/>
+      <c r="D137" s="60" t="n"/>
       <c r="E137" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F137" s="57" t="n"/>
+      <c r="F137" s="52" t="n"/>
       <c r="G137" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H137" s="71" t="n"/>
+      <c r="H137" s="66" t="n"/>
       <c r="I137" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9784,21 +9550,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B138" s="79" t="n"/>
-      <c r="C138" s="80" t="n"/>
-      <c r="D138" s="57" t="n"/>
+      <c r="B138" s="74" t="n"/>
+      <c r="C138" s="75" t="n"/>
+      <c r="D138" s="52" t="n"/>
       <c r="E138" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F138" s="57" t="n"/>
+      <c r="F138" s="52" t="n"/>
       <c r="G138" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H138" s="71" t="n"/>
+      <c r="H138" s="66" t="n"/>
       <c r="I138" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9839,21 +9605,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B139" s="79" t="n"/>
-      <c r="C139" s="80" t="n"/>
-      <c r="D139" s="57" t="n"/>
+      <c r="B139" s="74" t="n"/>
+      <c r="C139" s="75" t="n"/>
+      <c r="D139" s="52" t="n"/>
       <c r="E139" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F139" s="57" t="n"/>
+      <c r="F139" s="52" t="n"/>
       <c r="G139" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H139" s="71" t="n"/>
+      <c r="H139" s="66" t="n"/>
       <c r="I139" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9894,21 +9660,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B140" s="79" t="n"/>
-      <c r="C140" s="80" t="n"/>
-      <c r="D140" s="65" t="n"/>
+      <c r="B140" s="74" t="n"/>
+      <c r="C140" s="75" t="n"/>
+      <c r="D140" s="60" t="n"/>
       <c r="E140" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F140" s="57" t="n"/>
+      <c r="F140" s="52" t="n"/>
       <c r="G140" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H140" s="71" t="n"/>
+      <c r="H140" s="66" t="n"/>
       <c r="I140" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -9958,21 +9724,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B141" s="79" t="n"/>
-      <c r="C141" s="80" t="n"/>
-      <c r="D141" s="57" t="n"/>
+      <c r="B141" s="74" t="n"/>
+      <c r="C141" s="75" t="n"/>
+      <c r="D141" s="52" t="n"/>
       <c r="E141" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F141" s="57" t="n"/>
+      <c r="F141" s="52" t="n"/>
       <c r="G141" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H141" s="71" t="n"/>
+      <c r="H141" s="66" t="n"/>
       <c r="I141" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -10017,21 +9783,21 @@
           <t>L DOBRADO</t>
         </is>
       </c>
-      <c r="B142" s="79" t="n"/>
-      <c r="C142" s="80" t="n"/>
-      <c r="D142" s="57" t="n"/>
+      <c r="B142" s="74" t="n"/>
+      <c r="C142" s="75" t="n"/>
+      <c r="D142" s="52" t="n"/>
       <c r="E142" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F142" s="57" t="n"/>
+      <c r="F142" s="52" t="n"/>
       <c r="G142" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H142" s="71" t="n"/>
+      <c r="H142" s="66" t="n"/>
       <c r="I142" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -10076,11 +9842,11 @@
           <t>tubo redondo</t>
         </is>
       </c>
-      <c r="B143" s="57" t="n"/>
+      <c r="B143" s="52" t="n"/>
       <c r="C143" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="57" t="inlineStr">
+      <c r="D143" s="52" t="inlineStr">
         <is>
           <t>".</t>
         </is>
@@ -10088,7 +9854,7 @@
       <c r="E143" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F143" s="57" t="inlineStr">
+      <c r="F143" s="52" t="inlineStr">
         <is>
           <t>"</t>
         </is>
@@ -10098,7 +9864,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H143" s="71" t="n"/>
+      <c r="H143" s="66" t="n"/>
       <c r="I143" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -10143,11 +9909,11 @@
           <t>tubo redondo</t>
         </is>
       </c>
-      <c r="B144" s="57" t="n"/>
+      <c r="B144" s="52" t="n"/>
       <c r="C144" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="D144" s="57" t="inlineStr">
+      <c r="D144" s="52" t="inlineStr">
         <is>
           <t>".</t>
         </is>
@@ -10155,7 +9921,7 @@
       <c r="E144" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F144" s="57" t="inlineStr">
+      <c r="F144" s="52" t="inlineStr">
         <is>
           <t>"</t>
         </is>
@@ -10165,7 +9931,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H144" s="71" t="n"/>
+      <c r="H144" s="66" t="n"/>
       <c r="I144" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -10215,11 +9981,11 @@
           <t>tubo redondo</t>
         </is>
       </c>
-      <c r="B145" s="57" t="n"/>
+      <c r="B145" s="52" t="n"/>
       <c r="C145" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="D145" s="57" t="inlineStr">
+      <c r="D145" s="52" t="inlineStr">
         <is>
           <t>".</t>
         </is>
@@ -10227,7 +9993,7 @@
       <c r="E145" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="F145" s="57" t="inlineStr">
+      <c r="F145" s="52" t="inlineStr">
         <is>
           <t>"</t>
         </is>
@@ -10237,7 +10003,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H145" s="71" t="n"/>
+      <c r="H145" s="66" t="n"/>
       <c r="I145" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -10287,13 +10053,13 @@
           <t>W150X13</t>
         </is>
       </c>
-      <c r="B146" s="57" t="n"/>
+      <c r="B146" s="52" t="n"/>
       <c r="C146" s="31" t="n"/>
-      <c r="D146" s="57" t="n"/>
+      <c r="D146" s="52" t="n"/>
       <c r="E146" s="31" t="n"/>
-      <c r="F146" s="57" t="n"/>
+      <c r="F146" s="52" t="n"/>
       <c r="G146" s="31" t="n"/>
-      <c r="H146" s="57" t="n"/>
+      <c r="H146" s="52" t="n"/>
       <c r="I146" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10342,13 +10108,13 @@
           <t>W150X18</t>
         </is>
       </c>
-      <c r="B147" s="57" t="n"/>
+      <c r="B147" s="52" t="n"/>
       <c r="C147" s="31" t="n"/>
-      <c r="D147" s="57" t="n"/>
+      <c r="D147" s="52" t="n"/>
       <c r="E147" s="31" t="n"/>
-      <c r="F147" s="57" t="n"/>
+      <c r="F147" s="52" t="n"/>
       <c r="G147" s="31" t="n"/>
-      <c r="H147" s="57" t="n"/>
+      <c r="H147" s="52" t="n"/>
       <c r="I147" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10392,13 +10158,13 @@
           <t>W150X22,5</t>
         </is>
       </c>
-      <c r="B148" s="57" t="n"/>
+      <c r="B148" s="52" t="n"/>
       <c r="C148" s="31" t="n"/>
-      <c r="D148" s="57" t="n"/>
+      <c r="D148" s="52" t="n"/>
       <c r="E148" s="31" t="n"/>
-      <c r="F148" s="57" t="n"/>
+      <c r="F148" s="52" t="n"/>
       <c r="G148" s="31" t="n"/>
-      <c r="H148" s="57" t="n"/>
+      <c r="H148" s="52" t="n"/>
       <c r="I148" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10442,13 +10208,13 @@
           <t>W150X29,8</t>
         </is>
       </c>
-      <c r="B149" s="57" t="n"/>
+      <c r="B149" s="52" t="n"/>
       <c r="C149" s="31" t="n"/>
-      <c r="D149" s="57" t="n"/>
+      <c r="D149" s="52" t="n"/>
       <c r="E149" s="31" t="n"/>
-      <c r="F149" s="57" t="n"/>
+      <c r="F149" s="52" t="n"/>
       <c r="G149" s="31" t="n"/>
-      <c r="H149" s="57" t="n"/>
+      <c r="H149" s="52" t="n"/>
       <c r="I149" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10492,13 +10258,13 @@
           <t>W150X37,1</t>
         </is>
       </c>
-      <c r="B150" s="57" t="n"/>
+      <c r="B150" s="52" t="n"/>
       <c r="C150" s="31" t="n"/>
-      <c r="D150" s="57" t="n"/>
+      <c r="D150" s="52" t="n"/>
       <c r="E150" s="31" t="n"/>
-      <c r="F150" s="57" t="n"/>
+      <c r="F150" s="52" t="n"/>
       <c r="G150" s="31" t="n"/>
-      <c r="H150" s="57" t="n"/>
+      <c r="H150" s="52" t="n"/>
       <c r="I150" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10542,13 +10308,13 @@
           <t>W200X15</t>
         </is>
       </c>
-      <c r="B151" s="57" t="n"/>
+      <c r="B151" s="52" t="n"/>
       <c r="C151" s="31" t="n"/>
-      <c r="D151" s="57" t="n"/>
+      <c r="D151" s="52" t="n"/>
       <c r="E151" s="31" t="n"/>
-      <c r="F151" s="57" t="n"/>
+      <c r="F151" s="52" t="n"/>
       <c r="G151" s="31" t="n"/>
-      <c r="H151" s="57" t="n"/>
+      <c r="H151" s="52" t="n"/>
       <c r="I151" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10592,13 +10358,13 @@
           <t>W200X19,3</t>
         </is>
       </c>
-      <c r="B152" s="57" t="n"/>
+      <c r="B152" s="52" t="n"/>
       <c r="C152" s="31" t="n"/>
-      <c r="D152" s="57" t="n"/>
+      <c r="D152" s="52" t="n"/>
       <c r="E152" s="31" t="n"/>
-      <c r="F152" s="57" t="n"/>
+      <c r="F152" s="52" t="n"/>
       <c r="G152" s="31" t="n"/>
-      <c r="H152" s="57" t="n"/>
+      <c r="H152" s="52" t="n"/>
       <c r="I152" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10642,13 +10408,13 @@
           <t>W200X26,6</t>
         </is>
       </c>
-      <c r="B153" s="57" t="n"/>
+      <c r="B153" s="52" t="n"/>
       <c r="C153" s="31" t="n"/>
-      <c r="D153" s="57" t="n"/>
+      <c r="D153" s="52" t="n"/>
       <c r="E153" s="31" t="n"/>
-      <c r="F153" s="57" t="n"/>
+      <c r="F153" s="52" t="n"/>
       <c r="G153" s="31" t="n"/>
-      <c r="H153" s="57" t="n"/>
+      <c r="H153" s="52" t="n"/>
       <c r="I153" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10692,13 +10458,13 @@
           <t>W200X35,9</t>
         </is>
       </c>
-      <c r="B154" s="57" t="n"/>
+      <c r="B154" s="52" t="n"/>
       <c r="C154" s="31" t="n"/>
-      <c r="D154" s="57" t="n"/>
+      <c r="D154" s="52" t="n"/>
       <c r="E154" s="31" t="n"/>
-      <c r="F154" s="57" t="n"/>
+      <c r="F154" s="52" t="n"/>
       <c r="G154" s="31" t="n"/>
-      <c r="H154" s="57" t="n"/>
+      <c r="H154" s="52" t="n"/>
       <c r="I154" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10738,13 +10504,13 @@
           <t>W200X41,7</t>
         </is>
       </c>
-      <c r="B155" s="57" t="n"/>
+      <c r="B155" s="52" t="n"/>
       <c r="C155" s="31" t="n"/>
-      <c r="D155" s="57" t="n"/>
+      <c r="D155" s="52" t="n"/>
       <c r="E155" s="31" t="n"/>
-      <c r="F155" s="57" t="n"/>
+      <c r="F155" s="52" t="n"/>
       <c r="G155" s="31" t="n"/>
-      <c r="H155" s="57" t="n"/>
+      <c r="H155" s="52" t="n"/>
       <c r="I155" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10784,13 +10550,13 @@
           <t>W200X46,1</t>
         </is>
       </c>
-      <c r="B156" s="57" t="n"/>
+      <c r="B156" s="52" t="n"/>
       <c r="C156" s="31" t="n"/>
-      <c r="D156" s="57" t="n"/>
+      <c r="D156" s="52" t="n"/>
       <c r="E156" s="31" t="n"/>
-      <c r="F156" s="57" t="n"/>
+      <c r="F156" s="52" t="n"/>
       <c r="G156" s="31" t="n"/>
-      <c r="H156" s="57" t="n"/>
+      <c r="H156" s="52" t="n"/>
       <c r="I156" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10830,13 +10596,13 @@
           <t>W200X53</t>
         </is>
       </c>
-      <c r="B157" s="57" t="n"/>
+      <c r="B157" s="52" t="n"/>
       <c r="C157" s="31" t="n"/>
-      <c r="D157" s="57" t="n"/>
+      <c r="D157" s="52" t="n"/>
       <c r="E157" s="31" t="n"/>
-      <c r="F157" s="57" t="n"/>
+      <c r="F157" s="52" t="n"/>
       <c r="G157" s="31" t="n"/>
-      <c r="H157" s="57" t="n"/>
+      <c r="H157" s="52" t="n"/>
       <c r="I157" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10876,13 +10642,13 @@
           <t>W250X17,9</t>
         </is>
       </c>
-      <c r="B158" s="57" t="n"/>
+      <c r="B158" s="52" t="n"/>
       <c r="C158" s="31" t="n"/>
-      <c r="D158" s="57" t="n"/>
+      <c r="D158" s="52" t="n"/>
       <c r="E158" s="31" t="n"/>
-      <c r="F158" s="57" t="n"/>
+      <c r="F158" s="52" t="n"/>
       <c r="G158" s="31" t="n"/>
-      <c r="H158" s="57" t="n"/>
+      <c r="H158" s="52" t="n"/>
       <c r="I158" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10922,13 +10688,13 @@
           <t>W250X32,7</t>
         </is>
       </c>
-      <c r="B159" s="57" t="n"/>
+      <c r="B159" s="52" t="n"/>
       <c r="C159" s="31" t="n"/>
-      <c r="D159" s="57" t="n"/>
+      <c r="D159" s="52" t="n"/>
       <c r="E159" s="31" t="n"/>
-      <c r="F159" s="57" t="n"/>
+      <c r="F159" s="52" t="n"/>
       <c r="G159" s="31" t="n"/>
-      <c r="H159" s="57" t="n"/>
+      <c r="H159" s="52" t="n"/>
       <c r="I159" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -10968,13 +10734,13 @@
           <t>W250X62</t>
         </is>
       </c>
-      <c r="B160" s="57" t="n"/>
+      <c r="B160" s="52" t="n"/>
       <c r="C160" s="31" t="n"/>
-      <c r="D160" s="57" t="n"/>
+      <c r="D160" s="52" t="n"/>
       <c r="E160" s="31" t="n"/>
-      <c r="F160" s="57" t="n"/>
+      <c r="F160" s="52" t="n"/>
       <c r="G160" s="31" t="n"/>
-      <c r="H160" s="57" t="n"/>
+      <c r="H160" s="52" t="n"/>
       <c r="I160" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11014,13 +10780,13 @@
           <t>W310X38,7</t>
         </is>
       </c>
-      <c r="B161" s="57" t="n"/>
+      <c r="B161" s="52" t="n"/>
       <c r="C161" s="31" t="n"/>
-      <c r="D161" s="57" t="n"/>
+      <c r="D161" s="52" t="n"/>
       <c r="E161" s="31" t="n"/>
-      <c r="F161" s="57" t="n"/>
+      <c r="F161" s="52" t="n"/>
       <c r="G161" s="31" t="n"/>
-      <c r="H161" s="57" t="n"/>
+      <c r="H161" s="52" t="n"/>
       <c r="I161" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11060,13 +10826,13 @@
           <t>W310X44,5</t>
         </is>
       </c>
-      <c r="B162" s="57" t="n"/>
+      <c r="B162" s="52" t="n"/>
       <c r="C162" s="31" t="n"/>
-      <c r="D162" s="57" t="n"/>
+      <c r="D162" s="52" t="n"/>
       <c r="E162" s="31" t="n"/>
-      <c r="F162" s="57" t="n"/>
+      <c r="F162" s="52" t="n"/>
       <c r="G162" s="31" t="n"/>
-      <c r="H162" s="57" t="n"/>
+      <c r="H162" s="52" t="n"/>
       <c r="I162" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11106,13 +10872,13 @@
           <t>W360X39</t>
         </is>
       </c>
-      <c r="B163" s="57" t="n"/>
+      <c r="B163" s="52" t="n"/>
       <c r="C163" s="31" t="n"/>
-      <c r="D163" s="57" t="n"/>
+      <c r="D163" s="52" t="n"/>
       <c r="E163" s="31" t="n"/>
-      <c r="F163" s="57" t="n"/>
+      <c r="F163" s="52" t="n"/>
       <c r="G163" s="31" t="n"/>
-      <c r="H163" s="57" t="n"/>
+      <c r="H163" s="52" t="n"/>
       <c r="I163" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11152,13 +10918,13 @@
           <t>W410X46,1</t>
         </is>
       </c>
-      <c r="B164" s="57" t="n"/>
+      <c r="B164" s="52" t="n"/>
       <c r="C164" s="31" t="n"/>
-      <c r="D164" s="57" t="n"/>
+      <c r="D164" s="52" t="n"/>
       <c r="E164" s="31" t="n"/>
-      <c r="F164" s="57" t="n"/>
+      <c r="F164" s="52" t="n"/>
       <c r="G164" s="31" t="n"/>
-      <c r="H164" s="57" t="n"/>
+      <c r="H164" s="52" t="n"/>
       <c r="I164" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11198,13 +10964,13 @@
           <t>W410X67</t>
         </is>
       </c>
-      <c r="B165" s="57" t="n"/>
+      <c r="B165" s="52" t="n"/>
       <c r="C165" s="31" t="n"/>
-      <c r="D165" s="57" t="n"/>
+      <c r="D165" s="52" t="n"/>
       <c r="E165" s="31" t="n"/>
-      <c r="F165" s="57" t="n"/>
+      <c r="F165" s="52" t="n"/>
       <c r="G165" s="31" t="n"/>
-      <c r="H165" s="57" t="n"/>
+      <c r="H165" s="52" t="n"/>
       <c r="I165" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11244,13 +11010,13 @@
           <t>W410X85</t>
         </is>
       </c>
-      <c r="B166" s="57" t="n"/>
+      <c r="B166" s="52" t="n"/>
       <c r="C166" s="31" t="n"/>
-      <c r="D166" s="57" t="n"/>
+      <c r="D166" s="52" t="n"/>
       <c r="E166" s="31" t="n"/>
-      <c r="F166" s="57" t="n"/>
+      <c r="F166" s="52" t="n"/>
       <c r="G166" s="31" t="n"/>
-      <c r="H166" s="57" t="n"/>
+      <c r="H166" s="52" t="n"/>
       <c r="I166" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11290,13 +11056,13 @@
           <t>W460X52</t>
         </is>
       </c>
-      <c r="B167" s="57" t="n"/>
+      <c r="B167" s="52" t="n"/>
       <c r="C167" s="31" t="n"/>
-      <c r="D167" s="57" t="n"/>
+      <c r="D167" s="52" t="n"/>
       <c r="E167" s="31" t="n"/>
-      <c r="F167" s="57" t="n"/>
+      <c r="F167" s="52" t="n"/>
       <c r="G167" s="31" t="n"/>
-      <c r="H167" s="57" t="n"/>
+      <c r="H167" s="52" t="n"/>
       <c r="I167" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11336,13 +11102,13 @@
           <t>W460X60</t>
         </is>
       </c>
-      <c r="B168" s="57" t="n"/>
+      <c r="B168" s="52" t="n"/>
       <c r="C168" s="31" t="n"/>
-      <c r="D168" s="57" t="n"/>
+      <c r="D168" s="52" t="n"/>
       <c r="E168" s="31" t="n"/>
-      <c r="F168" s="57" t="n"/>
+      <c r="F168" s="52" t="n"/>
       <c r="G168" s="31" t="n"/>
-      <c r="H168" s="57" t="n"/>
+      <c r="H168" s="52" t="n"/>
       <c r="I168" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11382,13 +11148,13 @@
           <t>W460X74</t>
         </is>
       </c>
-      <c r="B169" s="57" t="n"/>
+      <c r="B169" s="52" t="n"/>
       <c r="C169" s="31" t="n"/>
-      <c r="D169" s="57" t="n"/>
+      <c r="D169" s="52" t="n"/>
       <c r="E169" s="31" t="n"/>
-      <c r="F169" s="57" t="n"/>
+      <c r="F169" s="52" t="n"/>
       <c r="G169" s="31" t="n"/>
-      <c r="H169" s="57" t="n"/>
+      <c r="H169" s="52" t="n"/>
       <c r="I169" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11428,13 +11194,13 @@
           <t>W530X66</t>
         </is>
       </c>
-      <c r="B170" s="57" t="n"/>
+      <c r="B170" s="52" t="n"/>
       <c r="C170" s="31" t="n"/>
-      <c r="D170" s="57" t="n"/>
+      <c r="D170" s="52" t="n"/>
       <c r="E170" s="31" t="n"/>
-      <c r="F170" s="57" t="n"/>
+      <c r="F170" s="52" t="n"/>
       <c r="G170" s="31" t="n"/>
-      <c r="H170" s="57" t="n"/>
+      <c r="H170" s="52" t="n"/>
       <c r="I170" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11474,13 +11240,13 @@
           <t>W530X72</t>
         </is>
       </c>
-      <c r="B171" s="57" t="n"/>
+      <c r="B171" s="52" t="n"/>
       <c r="C171" s="31" t="n"/>
-      <c r="D171" s="57" t="n"/>
+      <c r="D171" s="52" t="n"/>
       <c r="E171" s="31" t="n"/>
-      <c r="F171" s="57" t="n"/>
+      <c r="F171" s="52" t="n"/>
       <c r="G171" s="31" t="n"/>
-      <c r="H171" s="57" t="n"/>
+      <c r="H171" s="52" t="n"/>
       <c r="I171" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11520,13 +11286,13 @@
           <t>W530X82</t>
         </is>
       </c>
-      <c r="B172" s="57" t="n"/>
+      <c r="B172" s="52" t="n"/>
       <c r="C172" s="31" t="n"/>
-      <c r="D172" s="57" t="n"/>
+      <c r="D172" s="52" t="n"/>
       <c r="E172" s="31" t="n"/>
-      <c r="F172" s="57" t="n"/>
+      <c r="F172" s="52" t="n"/>
       <c r="G172" s="31" t="n"/>
-      <c r="H172" s="57" t="n"/>
+      <c r="H172" s="52" t="n"/>
       <c r="I172" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11566,13 +11332,13 @@
           <t>W530X92</t>
         </is>
       </c>
-      <c r="B173" s="57" t="n"/>
+      <c r="B173" s="52" t="n"/>
       <c r="C173" s="31" t="n"/>
-      <c r="D173" s="57" t="n"/>
+      <c r="D173" s="52" t="n"/>
       <c r="E173" s="31" t="n"/>
-      <c r="F173" s="57" t="n"/>
+      <c r="F173" s="52" t="n"/>
       <c r="G173" s="31" t="n"/>
-      <c r="H173" s="57" t="n"/>
+      <c r="H173" s="52" t="n"/>
       <c r="I173" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11612,13 +11378,13 @@
           <t>W610X174</t>
         </is>
       </c>
-      <c r="B174" s="57" t="n"/>
+      <c r="B174" s="52" t="n"/>
       <c r="C174" s="31" t="n"/>
-      <c r="D174" s="57" t="n"/>
+      <c r="D174" s="52" t="n"/>
       <c r="E174" s="31" t="n"/>
-      <c r="F174" s="57" t="n"/>
+      <c r="F174" s="52" t="n"/>
       <c r="G174" s="31" t="n"/>
-      <c r="H174" s="57" t="n"/>
+      <c r="H174" s="52" t="n"/>
       <c r="I174" s="31" t="inlineStr">
         <is>
           <t>ASTM-A572-GR50</t>
@@ -11658,13 +11424,13 @@
           <t>L 3/4"x1/8"</t>
         </is>
       </c>
-      <c r="B175" s="57" t="n"/>
+      <c r="B175" s="52" t="n"/>
       <c r="C175" s="31" t="n"/>
-      <c r="D175" s="57" t="n"/>
+      <c r="D175" s="52" t="n"/>
       <c r="E175" s="31" t="n"/>
-      <c r="F175" s="57" t="n"/>
+      <c r="F175" s="52" t="n"/>
       <c r="G175" s="31" t="n"/>
-      <c r="H175" s="57" t="n"/>
+      <c r="H175" s="52" t="n"/>
       <c r="I175" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11704,13 +11470,13 @@
           <t>L 1"x1/8"</t>
         </is>
       </c>
-      <c r="B176" s="57" t="n"/>
+      <c r="B176" s="52" t="n"/>
       <c r="C176" s="31" t="n"/>
-      <c r="D176" s="57" t="n"/>
+      <c r="D176" s="52" t="n"/>
       <c r="E176" s="31" t="n"/>
-      <c r="F176" s="57" t="n"/>
+      <c r="F176" s="52" t="n"/>
       <c r="G176" s="31" t="n"/>
-      <c r="H176" s="57" t="n"/>
+      <c r="H176" s="52" t="n"/>
       <c r="I176" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11750,13 +11516,13 @@
           <t>L 1.1/4"x1/8"</t>
         </is>
       </c>
-      <c r="B177" s="57" t="n"/>
+      <c r="B177" s="52" t="n"/>
       <c r="C177" s="31" t="n"/>
-      <c r="D177" s="57" t="n"/>
+      <c r="D177" s="52" t="n"/>
       <c r="E177" s="31" t="n"/>
-      <c r="F177" s="57" t="n"/>
+      <c r="F177" s="52" t="n"/>
       <c r="G177" s="31" t="n"/>
-      <c r="H177" s="57" t="n"/>
+      <c r="H177" s="52" t="n"/>
       <c r="I177" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11796,13 +11562,13 @@
           <t>L 1.1/2"x1/8"</t>
         </is>
       </c>
-      <c r="B178" s="57" t="n"/>
+      <c r="B178" s="52" t="n"/>
       <c r="C178" s="31" t="n"/>
-      <c r="D178" s="57" t="n"/>
+      <c r="D178" s="52" t="n"/>
       <c r="E178" s="31" t="n"/>
-      <c r="F178" s="57" t="n"/>
+      <c r="F178" s="52" t="n"/>
       <c r="G178" s="31" t="n"/>
-      <c r="H178" s="57" t="n"/>
+      <c r="H178" s="52" t="n"/>
       <c r="I178" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11842,13 +11608,13 @@
           <t>L 1.1/2"x3/16"</t>
         </is>
       </c>
-      <c r="B179" s="57" t="n"/>
+      <c r="B179" s="52" t="n"/>
       <c r="C179" s="31" t="n"/>
-      <c r="D179" s="57" t="n"/>
+      <c r="D179" s="52" t="n"/>
       <c r="E179" s="31" t="n"/>
-      <c r="F179" s="57" t="n"/>
+      <c r="F179" s="52" t="n"/>
       <c r="G179" s="31" t="n"/>
-      <c r="H179" s="57" t="n"/>
+      <c r="H179" s="52" t="n"/>
       <c r="I179" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11888,13 +11654,13 @@
           <t>L 1.3/4"x1/8"</t>
         </is>
       </c>
-      <c r="B180" s="57" t="n"/>
+      <c r="B180" s="52" t="n"/>
       <c r="C180" s="31" t="n"/>
-      <c r="D180" s="57" t="n"/>
+      <c r="D180" s="52" t="n"/>
       <c r="E180" s="31" t="n"/>
-      <c r="F180" s="57" t="n"/>
+      <c r="F180" s="52" t="n"/>
       <c r="G180" s="31" t="n"/>
-      <c r="H180" s="57" t="n"/>
+      <c r="H180" s="52" t="n"/>
       <c r="I180" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11934,13 +11700,13 @@
           <t>L 1.3/4"x3/16"</t>
         </is>
       </c>
-      <c r="B181" s="57" t="n"/>
+      <c r="B181" s="52" t="n"/>
       <c r="C181" s="31" t="n"/>
-      <c r="D181" s="57" t="n"/>
+      <c r="D181" s="52" t="n"/>
       <c r="E181" s="31" t="n"/>
-      <c r="F181" s="57" t="n"/>
+      <c r="F181" s="52" t="n"/>
       <c r="G181" s="31" t="n"/>
-      <c r="H181" s="57" t="n"/>
+      <c r="H181" s="52" t="n"/>
       <c r="I181" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -11980,13 +11746,13 @@
           <t>L 2"x1/8"</t>
         </is>
       </c>
-      <c r="B182" s="57" t="n"/>
+      <c r="B182" s="52" t="n"/>
       <c r="C182" s="31" t="n"/>
-      <c r="D182" s="57" t="n"/>
+      <c r="D182" s="52" t="n"/>
       <c r="E182" s="31" t="n"/>
-      <c r="F182" s="57" t="n"/>
+      <c r="F182" s="52" t="n"/>
       <c r="G182" s="31" t="n"/>
-      <c r="H182" s="57" t="n"/>
+      <c r="H182" s="52" t="n"/>
       <c r="I182" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12026,13 +11792,13 @@
           <t>L 2"x3/16"</t>
         </is>
       </c>
-      <c r="B183" s="57" t="n"/>
+      <c r="B183" s="52" t="n"/>
       <c r="C183" s="31" t="n"/>
-      <c r="D183" s="57" t="n"/>
+      <c r="D183" s="52" t="n"/>
       <c r="E183" s="31" t="n"/>
-      <c r="F183" s="57" t="n"/>
+      <c r="F183" s="52" t="n"/>
       <c r="G183" s="31" t="n"/>
-      <c r="H183" s="57" t="n"/>
+      <c r="H183" s="52" t="n"/>
       <c r="I183" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12072,13 +11838,13 @@
           <t>L 2"x1/4"</t>
         </is>
       </c>
-      <c r="B184" s="57" t="n"/>
+      <c r="B184" s="52" t="n"/>
       <c r="C184" s="31" t="n"/>
-      <c r="D184" s="57" t="n"/>
+      <c r="D184" s="52" t="n"/>
       <c r="E184" s="31" t="n"/>
-      <c r="F184" s="57" t="n"/>
+      <c r="F184" s="52" t="n"/>
       <c r="G184" s="31" t="n"/>
-      <c r="H184" s="57" t="n"/>
+      <c r="H184" s="52" t="n"/>
       <c r="I184" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12117,13 +11883,13 @@
           <t>L 2.1/2"x3/16"</t>
         </is>
       </c>
-      <c r="B185" s="57" t="n"/>
+      <c r="B185" s="52" t="n"/>
       <c r="C185" s="31" t="n"/>
-      <c r="D185" s="57" t="n"/>
+      <c r="D185" s="52" t="n"/>
       <c r="E185" s="31" t="n"/>
-      <c r="F185" s="57" t="n"/>
+      <c r="F185" s="52" t="n"/>
       <c r="G185" s="31" t="n"/>
-      <c r="H185" s="57" t="n"/>
+      <c r="H185" s="52" t="n"/>
       <c r="I185" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12162,13 +11928,13 @@
           <t>L 2.1/2"x1/4"</t>
         </is>
       </c>
-      <c r="B186" s="57" t="n"/>
+      <c r="B186" s="52" t="n"/>
       <c r="C186" s="31" t="n"/>
-      <c r="D186" s="57" t="n"/>
+      <c r="D186" s="52" t="n"/>
       <c r="E186" s="31" t="n"/>
-      <c r="F186" s="57" t="n"/>
+      <c r="F186" s="52" t="n"/>
       <c r="G186" s="31" t="n"/>
-      <c r="H186" s="57" t="n"/>
+      <c r="H186" s="52" t="n"/>
       <c r="I186" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12207,13 +11973,13 @@
           <t>L 3"x3/16"</t>
         </is>
       </c>
-      <c r="B187" s="57" t="n"/>
+      <c r="B187" s="52" t="n"/>
       <c r="C187" s="31" t="n"/>
-      <c r="D187" s="57" t="n"/>
+      <c r="D187" s="52" t="n"/>
       <c r="E187" s="31" t="n"/>
-      <c r="F187" s="57" t="n"/>
+      <c r="F187" s="52" t="n"/>
       <c r="G187" s="31" t="n"/>
-      <c r="H187" s="57" t="n"/>
+      <c r="H187" s="52" t="n"/>
       <c r="I187" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12252,13 +12018,13 @@
           <t>L 3"x1/4"</t>
         </is>
       </c>
-      <c r="B188" s="58" t="n"/>
+      <c r="B188" s="53" t="n"/>
       <c r="C188" s="46" t="n"/>
-      <c r="D188" s="58" t="n"/>
+      <c r="D188" s="53" t="n"/>
       <c r="E188" s="46" t="n"/>
-      <c r="F188" s="58" t="n"/>
+      <c r="F188" s="53" t="n"/>
       <c r="G188" s="31" t="n"/>
-      <c r="H188" s="57" t="n"/>
+      <c r="H188" s="52" t="n"/>
       <c r="I188" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12292,22 +12058,22 @@
       </c>
     </row>
     <row r="189" ht="15" customHeight="1" s="88">
-      <c r="A189" s="81" t="inlineStr">
+      <c r="A189" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B189" s="82" t="n"/>
-      <c r="C189" s="82" t="n"/>
-      <c r="D189" s="82" t="n"/>
-      <c r="E189" s="82" t="n"/>
-      <c r="F189" s="83" t="n"/>
+      <c r="B189" s="77" t="n"/>
+      <c r="C189" s="77" t="n"/>
+      <c r="D189" s="77" t="n"/>
+      <c r="E189" s="77" t="n"/>
+      <c r="F189" s="78" t="n"/>
       <c r="G189" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H189" s="71" t="n">
+      <c r="H189" s="66" t="n">
         <v>19.05</v>
       </c>
       <c r="I189" s="31" t="inlineStr">
@@ -12349,22 +12115,22 @@
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" s="88">
-      <c r="A190" s="81" t="inlineStr">
+      <c r="A190" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B190" s="82" t="n"/>
-      <c r="C190" s="82" t="n"/>
-      <c r="D190" s="82" t="n"/>
-      <c r="E190" s="82" t="n"/>
-      <c r="F190" s="83" t="n"/>
+      <c r="B190" s="77" t="n"/>
+      <c r="C190" s="77" t="n"/>
+      <c r="D190" s="77" t="n"/>
+      <c r="E190" s="77" t="n"/>
+      <c r="F190" s="78" t="n"/>
       <c r="G190" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H190" s="71" t="n">
+      <c r="H190" s="66" t="n">
         <v>7.94</v>
       </c>
       <c r="I190" s="31" t="inlineStr">
@@ -12406,22 +12172,22 @@
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" s="88">
-      <c r="A191" s="81" t="inlineStr">
+      <c r="A191" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B191" s="82" t="n"/>
-      <c r="C191" s="82" t="n"/>
-      <c r="D191" s="82" t="n"/>
-      <c r="E191" s="82" t="n"/>
-      <c r="F191" s="83" t="n"/>
+      <c r="B191" s="77" t="n"/>
+      <c r="C191" s="77" t="n"/>
+      <c r="D191" s="77" t="n"/>
+      <c r="E191" s="77" t="n"/>
+      <c r="F191" s="78" t="n"/>
       <c r="G191" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H191" s="71" t="n">
+      <c r="H191" s="66" t="n">
         <v>12.7</v>
       </c>
       <c r="I191" s="31" t="inlineStr">
@@ -12463,22 +12229,22 @@
       </c>
     </row>
     <row r="192" ht="15" customHeight="1" s="88">
-      <c r="A192" s="81" t="inlineStr">
+      <c r="A192" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B192" s="82" t="n"/>
-      <c r="C192" s="82" t="n"/>
-      <c r="D192" s="82" t="n"/>
-      <c r="E192" s="82" t="n"/>
-      <c r="F192" s="83" t="n"/>
+      <c r="B192" s="77" t="n"/>
+      <c r="C192" s="77" t="n"/>
+      <c r="D192" s="77" t="n"/>
+      <c r="E192" s="77" t="n"/>
+      <c r="F192" s="78" t="n"/>
       <c r="G192" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H192" s="71" t="n"/>
+      <c r="H192" s="66" t="n"/>
       <c r="I192" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12513,22 +12279,22 @@
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" s="88">
-      <c r="A193" s="81" t="inlineStr">
+      <c r="A193" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B193" s="82" t="n"/>
-      <c r="C193" s="82" t="n"/>
-      <c r="D193" s="82" t="n"/>
-      <c r="E193" s="82" t="n"/>
-      <c r="F193" s="83" t="n"/>
+      <c r="B193" s="77" t="n"/>
+      <c r="C193" s="77" t="n"/>
+      <c r="D193" s="77" t="n"/>
+      <c r="E193" s="77" t="n"/>
+      <c r="F193" s="78" t="n"/>
       <c r="G193" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H193" s="71" t="n"/>
+      <c r="H193" s="66" t="n"/>
       <c r="I193" s="31" t="inlineStr">
         <is>
           <t>ASTM A36</t>
@@ -12563,22 +12329,22 @@
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" s="88">
-      <c r="A194" s="81" t="inlineStr">
+      <c r="A194" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B194" s="82" t="n"/>
-      <c r="C194" s="82" t="n"/>
-      <c r="D194" s="82" t="n"/>
-      <c r="E194" s="82" t="n"/>
-      <c r="F194" s="83" t="n"/>
+      <c r="B194" s="77" t="n"/>
+      <c r="C194" s="77" t="n"/>
+      <c r="D194" s="77" t="n"/>
+      <c r="E194" s="77" t="n"/>
+      <c r="F194" s="78" t="n"/>
       <c r="G194" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H194" s="71" t="n">
+      <c r="H194" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I194" s="31" t="inlineStr">
@@ -12615,22 +12381,22 @@
       </c>
     </row>
     <row r="195" ht="15" customHeight="1" s="88">
-      <c r="A195" s="81" t="inlineStr">
+      <c r="A195" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B195" s="82" t="n"/>
-      <c r="C195" s="82" t="n"/>
-      <c r="D195" s="82" t="n"/>
-      <c r="E195" s="82" t="n"/>
-      <c r="F195" s="83" t="n"/>
+      <c r="B195" s="77" t="n"/>
+      <c r="C195" s="77" t="n"/>
+      <c r="D195" s="77" t="n"/>
+      <c r="E195" s="77" t="n"/>
+      <c r="F195" s="78" t="n"/>
       <c r="G195" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H195" s="71" t="n">
+      <c r="H195" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I195" s="31" t="inlineStr">
@@ -12667,22 +12433,22 @@
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" s="88">
-      <c r="A196" s="81" t="inlineStr">
+      <c r="A196" s="76" t="inlineStr">
         <is>
           <t>FERRO MECANICO RED.</t>
         </is>
       </c>
-      <c r="B196" s="82" t="n"/>
-      <c r="C196" s="82" t="n"/>
-      <c r="D196" s="82" t="n"/>
-      <c r="E196" s="82" t="n"/>
-      <c r="F196" s="83" t="n"/>
+      <c r="B196" s="77" t="n"/>
+      <c r="C196" s="77" t="n"/>
+      <c r="D196" s="77" t="n"/>
+      <c r="E196" s="77" t="n"/>
+      <c r="F196" s="78" t="n"/>
       <c r="G196" s="45" t="inlineStr">
         <is>
           <t>Ø</t>
         </is>
       </c>
-      <c r="H196" s="71" t="n">
+      <c r="H196" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I196" s="31" t="inlineStr">
@@ -12724,17 +12490,17 @@
           <t>FERRO CHATO</t>
         </is>
       </c>
-      <c r="B197" s="59" t="n"/>
+      <c r="B197" s="54" t="n"/>
       <c r="C197" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="D197" s="59" t="inlineStr">
+      <c r="D197" s="54" t="inlineStr">
         <is>
           <t xml:space="preserve"> "  .</t>
         </is>
       </c>
       <c r="E197" s="48" t="n"/>
-      <c r="F197" s="59" t="inlineStr">
+      <c r="F197" s="54" t="inlineStr">
         <is>
           <t>"</t>
         </is>
@@ -12744,7 +12510,7 @@
           <t>#</t>
         </is>
       </c>
-      <c r="H197" s="71" t="n">
+      <c r="H197" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I197" s="31" t="inlineStr">
@@ -12786,11 +12552,11 @@
           <t>FERRO CHATO</t>
         </is>
       </c>
-      <c r="B198" s="57" t="n"/>
+      <c r="B198" s="52" t="n"/>
       <c r="C198" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D198" s="57" t="inlineStr">
+      <c r="D198" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve"> "  .</t>
         </is>
@@ -12798,7 +12564,7 @@
       <c r="E198" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="F198" s="57" t="inlineStr">
+      <c r="F198" s="52" t="inlineStr">
         <is>
           <t>"</t>
         </is>
@@ -12808,7 +12574,7 @@
           <t>#</t>
         </is>
       </c>
-      <c r="H198" s="71" t="n">
+      <c r="H198" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I198" s="31" t="inlineStr">
@@ -12850,11 +12616,11 @@
           <t>CHAPA A</t>
         </is>
       </c>
-      <c r="B199" s="57" t="n">
+      <c r="B199" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C199" s="31" t="n"/>
-      <c r="D199" s="57" t="inlineStr">
+      <c r="D199" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -12862,13 +12628,13 @@
       <c r="E199" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F199" s="57" t="n"/>
+      <c r="F199" s="52" t="n"/>
       <c r="G199" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H199" s="71" t="n">
+      <c r="H199" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I199" s="31" t="inlineStr">
@@ -12909,11 +12675,11 @@
           <t>CHAPA B</t>
         </is>
       </c>
-      <c r="B200" s="57" t="n">
+      <c r="B200" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C200" s="31" t="n"/>
-      <c r="D200" s="57" t="inlineStr">
+      <c r="D200" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -12921,13 +12687,13 @@
       <c r="E200" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F200" s="57" t="n"/>
+      <c r="F200" s="52" t="n"/>
       <c r="G200" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H200" s="71" t="n">
+      <c r="H200" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I200" s="31" t="inlineStr">
@@ -12968,11 +12734,11 @@
           <t>CHAPA C</t>
         </is>
       </c>
-      <c r="B201" s="57" t="n">
+      <c r="B201" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C201" s="31" t="n"/>
-      <c r="D201" s="57" t="inlineStr">
+      <c r="D201" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -12980,13 +12746,13 @@
       <c r="E201" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F201" s="57" t="n"/>
+      <c r="F201" s="52" t="n"/>
       <c r="G201" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H201" s="71" t="n">
+      <c r="H201" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I201" s="31" t="inlineStr">
@@ -13027,11 +12793,11 @@
           <t>CHAPA D</t>
         </is>
       </c>
-      <c r="B202" s="57" t="n">
+      <c r="B202" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C202" s="31" t="n"/>
-      <c r="D202" s="57" t="inlineStr">
+      <c r="D202" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13039,13 +12805,13 @@
       <c r="E202" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F202" s="57" t="n"/>
+      <c r="F202" s="52" t="n"/>
       <c r="G202" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H202" s="71" t="n">
+      <c r="H202" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I202" s="31" t="inlineStr">
@@ -13086,11 +12852,11 @@
           <t>CHAPA E</t>
         </is>
       </c>
-      <c r="B203" s="57" t="n">
+      <c r="B203" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C203" s="31" t="n"/>
-      <c r="D203" s="57" t="inlineStr">
+      <c r="D203" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13098,13 +12864,13 @@
       <c r="E203" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F203" s="57" t="n"/>
+      <c r="F203" s="52" t="n"/>
       <c r="G203" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H203" s="71" t="n">
+      <c r="H203" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I203" s="31" t="inlineStr">
@@ -13145,11 +12911,11 @@
           <t>CHAPA F</t>
         </is>
       </c>
-      <c r="B204" s="57" t="n">
+      <c r="B204" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C204" s="31" t="n"/>
-      <c r="D204" s="57" t="inlineStr">
+      <c r="D204" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13157,13 +12923,13 @@
       <c r="E204" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F204" s="57" t="n"/>
+      <c r="F204" s="52" t="n"/>
       <c r="G204" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H204" s="71" t="n">
+      <c r="H204" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I204" s="31" t="inlineStr">
@@ -13204,11 +12970,11 @@
           <t>CHAPA G</t>
         </is>
       </c>
-      <c r="B205" s="57" t="n">
+      <c r="B205" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C205" s="31" t="n"/>
-      <c r="D205" s="57" t="inlineStr">
+      <c r="D205" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13216,13 +12982,13 @@
       <c r="E205" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F205" s="57" t="n"/>
+      <c r="F205" s="52" t="n"/>
       <c r="G205" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H205" s="71" t="n">
+      <c r="H205" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I205" s="31" t="inlineStr">
@@ -13261,11 +13027,11 @@
           <t>CHAPA H</t>
         </is>
       </c>
-      <c r="B206" s="57" t="n">
+      <c r="B206" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C206" s="31" t="n"/>
-      <c r="D206" s="57" t="inlineStr">
+      <c r="D206" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13273,13 +13039,13 @@
       <c r="E206" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F206" s="57" t="n"/>
+      <c r="F206" s="52" t="n"/>
       <c r="G206" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H206" s="71" t="n">
+      <c r="H206" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I206" s="31" t="inlineStr">
@@ -13320,11 +13086,11 @@
           <t>CHAPA I</t>
         </is>
       </c>
-      <c r="B207" s="57" t="n">
+      <c r="B207" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C207" s="31" t="n"/>
-      <c r="D207" s="57" t="inlineStr">
+      <c r="D207" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13332,13 +13098,13 @@
       <c r="E207" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F207" s="57" t="n"/>
+      <c r="F207" s="52" t="n"/>
       <c r="G207" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H207" s="71" t="n">
+      <c r="H207" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I207" s="31" t="inlineStr">
@@ -13379,11 +13145,11 @@
           <t>CHAPA J</t>
         </is>
       </c>
-      <c r="B208" s="57" t="n">
+      <c r="B208" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C208" s="31" t="n"/>
-      <c r="D208" s="57" t="inlineStr">
+      <c r="D208" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13391,13 +13157,13 @@
       <c r="E208" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="57" t="n"/>
+      <c r="F208" s="52" t="n"/>
       <c r="G208" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H208" s="71" t="n">
+      <c r="H208" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I208" s="31" t="inlineStr">
@@ -13438,11 +13204,11 @@
           <t>CHAPA K</t>
         </is>
       </c>
-      <c r="B209" s="57" t="n">
+      <c r="B209" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C209" s="31" t="n"/>
-      <c r="D209" s="57" t="inlineStr">
+      <c r="D209" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13450,13 +13216,13 @@
       <c r="E209" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F209" s="57" t="n"/>
+      <c r="F209" s="52" t="n"/>
       <c r="G209" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H209" s="71" t="n">
+      <c r="H209" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I209" s="31" t="inlineStr">
@@ -13497,11 +13263,11 @@
           <t>CHAPA L</t>
         </is>
       </c>
-      <c r="B210" s="57" t="n">
+      <c r="B210" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C210" s="31" t="n"/>
-      <c r="D210" s="57" t="inlineStr">
+      <c r="D210" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13509,13 +13275,13 @@
       <c r="E210" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F210" s="57" t="n"/>
+      <c r="F210" s="52" t="n"/>
       <c r="G210" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H210" s="71" t="n">
+      <c r="H210" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I210" s="31" t="inlineStr">
@@ -13556,11 +13322,11 @@
           <t>CHAPA M</t>
         </is>
       </c>
-      <c r="B211" s="57" t="n">
+      <c r="B211" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C211" s="31" t="n"/>
-      <c r="D211" s="57" t="inlineStr">
+      <c r="D211" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13568,13 +13334,13 @@
       <c r="E211" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F211" s="57" t="n"/>
+      <c r="F211" s="52" t="n"/>
       <c r="G211" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H211" s="71" t="n">
+      <c r="H211" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I211" s="31" t="inlineStr">
@@ -13615,11 +13381,11 @@
           <t>CHAPA N</t>
         </is>
       </c>
-      <c r="B212" s="57" t="n">
+      <c r="B212" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C212" s="31" t="n"/>
-      <c r="D212" s="57" t="inlineStr">
+      <c r="D212" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13627,13 +13393,13 @@
       <c r="E212" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F212" s="57" t="n"/>
+      <c r="F212" s="52" t="n"/>
       <c r="G212" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H212" s="71" t="n">
+      <c r="H212" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I212" s="31" t="inlineStr">
@@ -13674,11 +13440,11 @@
           <t>CHAPA O</t>
         </is>
       </c>
-      <c r="B213" s="57" t="n">
+      <c r="B213" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C213" s="31" t="n"/>
-      <c r="D213" s="57" t="inlineStr">
+      <c r="D213" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13686,13 +13452,13 @@
       <c r="E213" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F213" s="57" t="n"/>
+      <c r="F213" s="52" t="n"/>
       <c r="G213" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H213" s="71" t="n">
+      <c r="H213" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I213" s="31" t="inlineStr">
@@ -13733,11 +13499,11 @@
           <t>CHAPA P</t>
         </is>
       </c>
-      <c r="B214" s="57" t="n">
+      <c r="B214" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C214" s="31" t="n"/>
-      <c r="D214" s="57" t="inlineStr">
+      <c r="D214" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13745,13 +13511,13 @@
       <c r="E214" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F214" s="57" t="n"/>
+      <c r="F214" s="52" t="n"/>
       <c r="G214" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H214" s="71" t="n">
+      <c r="H214" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I214" s="31" t="inlineStr">
@@ -13792,11 +13558,11 @@
           <t>CHAPA Q</t>
         </is>
       </c>
-      <c r="B215" s="57" t="n">
+      <c r="B215" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C215" s="31" t="n"/>
-      <c r="D215" s="57" t="inlineStr">
+      <c r="D215" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13804,13 +13570,13 @@
       <c r="E215" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F215" s="57" t="n"/>
+      <c r="F215" s="52" t="n"/>
       <c r="G215" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H215" s="71" t="n">
+      <c r="H215" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I215" s="31" t="inlineStr">
@@ -13851,11 +13617,11 @@
           <t>CHAPA R</t>
         </is>
       </c>
-      <c r="B216" s="57" t="n">
+      <c r="B216" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C216" s="31" t="n"/>
-      <c r="D216" s="57" t="inlineStr">
+      <c r="D216" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13863,13 +13629,13 @@
       <c r="E216" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F216" s="57" t="n"/>
+      <c r="F216" s="52" t="n"/>
       <c r="G216" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H216" s="71" t="n">
+      <c r="H216" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I216" s="31" t="inlineStr">
@@ -13910,11 +13676,11 @@
           <t>CHAPA S</t>
         </is>
       </c>
-      <c r="B217" s="57" t="n">
+      <c r="B217" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C217" s="31" t="n"/>
-      <c r="D217" s="57" t="inlineStr">
+      <c r="D217" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13922,13 +13688,13 @@
       <c r="E217" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F217" s="57" t="n"/>
+      <c r="F217" s="52" t="n"/>
       <c r="G217" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H217" s="71" t="n">
+      <c r="H217" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I217" s="31" t="inlineStr">
@@ -13969,11 +13735,11 @@
           <t>CHAPA T</t>
         </is>
       </c>
-      <c r="B218" s="57" t="n">
+      <c r="B218" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C218" s="31" t="n"/>
-      <c r="D218" s="57" t="inlineStr">
+      <c r="D218" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13981,13 +13747,13 @@
       <c r="E218" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F218" s="57" t="n"/>
+      <c r="F218" s="52" t="n"/>
       <c r="G218" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H218" s="71" t="n">
+      <c r="H218" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I218" s="31" t="inlineStr">
@@ -14028,11 +13794,11 @@
           <t>CHAPA U</t>
         </is>
       </c>
-      <c r="B219" s="57" t="n">
+      <c r="B219" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C219" s="31" t="n"/>
-      <c r="D219" s="57" t="inlineStr">
+      <c r="D219" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14040,13 +13806,13 @@
       <c r="E219" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F219" s="57" t="n"/>
+      <c r="F219" s="52" t="n"/>
       <c r="G219" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H219" s="71" t="n">
+      <c r="H219" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I219" s="31" t="inlineStr">
@@ -14087,11 +13853,11 @@
           <t>CHAPA V</t>
         </is>
       </c>
-      <c r="B220" s="57" t="n">
+      <c r="B220" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C220" s="31" t="n"/>
-      <c r="D220" s="57" t="inlineStr">
+      <c r="D220" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14099,13 +13865,13 @@
       <c r="E220" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F220" s="57" t="n"/>
+      <c r="F220" s="52" t="n"/>
       <c r="G220" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H220" s="71" t="n">
+      <c r="H220" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I220" s="31" t="inlineStr">
@@ -14146,11 +13912,11 @@
           <t>CHAPA W</t>
         </is>
       </c>
-      <c r="B221" s="57" t="n">
+      <c r="B221" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C221" s="31" t="n"/>
-      <c r="D221" s="57" t="inlineStr">
+      <c r="D221" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14158,13 +13924,13 @@
       <c r="E221" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F221" s="57" t="n"/>
+      <c r="F221" s="52" t="n"/>
       <c r="G221" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H221" s="71" t="n">
+      <c r="H221" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I221" s="31" t="inlineStr">
@@ -14205,11 +13971,11 @@
           <t>CHAPA X</t>
         </is>
       </c>
-      <c r="B222" s="57" t="n">
+      <c r="B222" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C222" s="31" t="n"/>
-      <c r="D222" s="57" t="inlineStr">
+      <c r="D222" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14217,13 +13983,13 @@
       <c r="E222" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F222" s="57" t="n"/>
+      <c r="F222" s="52" t="n"/>
       <c r="G222" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H222" s="71" t="n">
+      <c r="H222" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I222" s="31" t="inlineStr">
@@ -14264,11 +14030,11 @@
           <t>CHAPA Y</t>
         </is>
       </c>
-      <c r="B223" s="57" t="n">
+      <c r="B223" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C223" s="31" t="n"/>
-      <c r="D223" s="57" t="inlineStr">
+      <c r="D223" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14276,13 +14042,13 @@
       <c r="E223" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F223" s="57" t="n"/>
+      <c r="F223" s="52" t="n"/>
       <c r="G223" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H223" s="71" t="n">
+      <c r="H223" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I223" s="31" t="inlineStr">
@@ -14323,11 +14089,11 @@
           <t>CHAPA Z</t>
         </is>
       </c>
-      <c r="B224" s="57" t="n">
+      <c r="B224" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C224" s="31" t="n"/>
-      <c r="D224" s="57" t="inlineStr">
+      <c r="D224" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14335,13 +14101,13 @@
       <c r="E224" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F224" s="57" t="n"/>
+      <c r="F224" s="52" t="n"/>
       <c r="G224" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H224" s="71" t="n">
+      <c r="H224" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I224" s="31" t="inlineStr">
@@ -14382,11 +14148,11 @@
           <t>CHAPA AA</t>
         </is>
       </c>
-      <c r="B225" s="57" t="n">
+      <c r="B225" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C225" s="31" t="n"/>
-      <c r="D225" s="57" t="inlineStr">
+      <c r="D225" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14394,13 +14160,13 @@
       <c r="E225" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F225" s="57" t="n"/>
+      <c r="F225" s="52" t="n"/>
       <c r="G225" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H225" s="71" t="n">
+      <c r="H225" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I225" s="31" t="inlineStr">
@@ -14443,11 +14209,11 @@
           <t>Dg. XADREZ</t>
         </is>
       </c>
-      <c r="B226" s="57" t="n">
+      <c r="B226" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C226" s="31" t="n"/>
-      <c r="D226" s="57" t="inlineStr">
+      <c r="D226" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14455,13 +14221,13 @@
       <c r="E226" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F226" s="57" t="n"/>
+      <c r="F226" s="52" t="n"/>
       <c r="G226" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H226" s="71" t="n">
+      <c r="H226" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I226" s="31" t="inlineStr">
@@ -14503,11 +14269,11 @@
           <t>CH. XADREZ</t>
         </is>
       </c>
-      <c r="B227" s="57" t="n">
+      <c r="B227" s="52" t="n">
         <v>0</v>
       </c>
       <c r="C227" s="31" t="n"/>
-      <c r="D227" s="57" t="inlineStr">
+      <c r="D227" s="52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14515,13 +14281,13 @@
       <c r="E227" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="F227" s="57" t="n"/>
+      <c r="F227" s="52" t="n"/>
       <c r="G227" s="31" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="H227" s="71" t="n">
+      <c r="H227" s="66" t="n">
         <v>0</v>
       </c>
       <c r="I227" s="31" t="inlineStr">
@@ -14559,13 +14325,13 @@
     </row>
     <row r="228" ht="15" customHeight="1" s="88">
       <c r="A228" s="31" t="n"/>
-      <c r="B228" s="57" t="n"/>
+      <c r="B228" s="52" t="n"/>
       <c r="C228" s="31" t="n"/>
-      <c r="D228" s="57" t="n"/>
+      <c r="D228" s="52" t="n"/>
       <c r="E228" s="31" t="n"/>
-      <c r="F228" s="57" t="n"/>
+      <c r="F228" s="52" t="n"/>
       <c r="G228" s="31" t="n"/>
-      <c r="H228" s="71" t="n"/>
+      <c r="H228" s="66" t="n"/>
       <c r="I228" s="31" t="n"/>
       <c r="J228" s="31" t="n"/>
       <c r="K228" s="31" t="n"/>
@@ -14581,13 +14347,13 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B229" s="56" t="n"/>
+      <c r="B229" s="51" t="n"/>
       <c r="C229" s="91" t="n"/>
-      <c r="D229" s="56" t="n"/>
+      <c r="D229" s="51" t="n"/>
       <c r="E229" s="91" t="n"/>
-      <c r="F229" s="56" t="n"/>
+      <c r="F229" s="51" t="n"/>
       <c r="G229" s="91" t="n"/>
-      <c r="H229" s="56" t="n"/>
+      <c r="H229" s="51" t="n"/>
       <c r="I229" s="91" t="n"/>
       <c r="J229" s="91" t="n"/>
       <c r="K229" s="91" t="n"/>
@@ -14609,13 +14375,13 @@
           <t>RESUMO DE AÇO (O QUANTITATIVO FINAL É DE RESPONSABILIDADE DO FABRICANTE DA ESTRUTURA)</t>
         </is>
       </c>
-      <c r="B231" s="60" t="n"/>
+      <c r="B231" s="55" t="n"/>
       <c r="C231" s="43" t="n"/>
-      <c r="D231" s="60" t="n"/>
+      <c r="D231" s="55" t="n"/>
       <c r="E231" s="43" t="n"/>
-      <c r="F231" s="60" t="n"/>
+      <c r="F231" s="55" t="n"/>
       <c r="G231" s="43" t="n"/>
-      <c r="H231" s="60" t="n"/>
+      <c r="H231" s="55" t="n"/>
       <c r="I231" s="43" t="n"/>
       <c r="J231" s="43" t="n"/>
       <c r="K231" s="43" t="n"/>
@@ -14628,16 +14394,16 @@
           <t>DOBRADOS</t>
         </is>
       </c>
-      <c r="B232" s="61" t="n"/>
+      <c r="B232" s="56" t="n"/>
       <c r="C232" s="34" t="n"/>
-      <c r="D232" s="66">
+      <c r="D232" s="61">
         <f>SUM(P34:P142)</f>
         <v/>
       </c>
       <c r="E232" s="37" t="n"/>
-      <c r="F232" s="66" t="n"/>
+      <c r="F232" s="61" t="n"/>
       <c r="G232" s="37" t="n"/>
-      <c r="H232" s="66" t="n"/>
+      <c r="H232" s="61" t="n"/>
       <c r="I232" s="37" t="n"/>
       <c r="J232" s="37" t="n"/>
       <c r="K232" s="37" t="n"/>
@@ -14650,16 +14416,16 @@
           <t>LAMINADOS</t>
         </is>
       </c>
-      <c r="B233" s="61" t="n"/>
+      <c r="B233" s="56" t="n"/>
       <c r="C233" s="34" t="n"/>
-      <c r="D233" s="66">
+      <c r="D233" s="61">
         <f>SUM(P175:P198)</f>
         <v/>
       </c>
       <c r="E233" s="37" t="n"/>
-      <c r="F233" s="66" t="n"/>
+      <c r="F233" s="61" t="n"/>
       <c r="G233" s="37" t="n"/>
-      <c r="H233" s="66" t="n"/>
+      <c r="H233" s="61" t="n"/>
       <c r="I233" s="37" t="n"/>
       <c r="J233" s="37" t="n"/>
       <c r="K233" s="37" t="n"/>
@@ -14672,16 +14438,16 @@
           <t>PERFIL W</t>
         </is>
       </c>
-      <c r="B234" s="61" t="n"/>
+      <c r="B234" s="56" t="n"/>
       <c r="C234" s="34" t="n"/>
-      <c r="D234" s="66">
+      <c r="D234" s="61">
         <f>SUM(P146:P174)</f>
         <v/>
       </c>
       <c r="E234" s="37" t="n"/>
-      <c r="F234" s="66" t="n"/>
+      <c r="F234" s="61" t="n"/>
       <c r="G234" s="37" t="n"/>
-      <c r="H234" s="66" t="n"/>
+      <c r="H234" s="61" t="n"/>
       <c r="I234" s="37" t="n"/>
       <c r="J234" s="37" t="n"/>
       <c r="K234" s="37" t="n"/>
@@ -14694,16 +14460,16 @@
           <t>CHAPAS</t>
         </is>
       </c>
-      <c r="B235" s="61" t="n"/>
+      <c r="B235" s="56" t="n"/>
       <c r="C235" s="34" t="n"/>
-      <c r="D235" s="66">
+      <c r="D235" s="61">
         <f>SUM(P199:P225)</f>
         <v/>
       </c>
       <c r="E235" s="37" t="n"/>
-      <c r="F235" s="66" t="n"/>
+      <c r="F235" s="61" t="n"/>
       <c r="G235" s="37" t="n"/>
-      <c r="H235" s="66" t="n"/>
+      <c r="H235" s="61" t="n"/>
       <c r="I235" s="37" t="n"/>
       <c r="J235" s="37" t="n"/>
       <c r="K235" s="37" t="n"/>
@@ -14716,16 +14482,16 @@
           <t>TUBOS REDONDO</t>
         </is>
       </c>
-      <c r="B236" s="61" t="n"/>
+      <c r="B236" s="56" t="n"/>
       <c r="C236" s="34" t="n"/>
-      <c r="D236" s="67">
+      <c r="D236" s="62">
         <f>SUM(P143:P145)</f>
         <v/>
       </c>
       <c r="E236" s="40" t="n"/>
-      <c r="F236" s="70" t="n"/>
+      <c r="F236" s="65" t="n"/>
       <c r="G236" s="40" t="n"/>
-      <c r="H236" s="70" t="n"/>
+      <c r="H236" s="65" t="n"/>
       <c r="I236" s="40" t="n"/>
       <c r="J236" s="40" t="n"/>
       <c r="K236" s="40" t="n"/>
@@ -14738,16 +14504,16 @@
           <t>CHAPA XADREZ</t>
         </is>
       </c>
-      <c r="B237" s="61" t="n"/>
+      <c r="B237" s="56" t="n"/>
       <c r="C237" s="34" t="n"/>
-      <c r="D237" s="67">
+      <c r="D237" s="62">
         <f>SUM(P226:P227)</f>
         <v/>
       </c>
       <c r="E237" s="40" t="n"/>
-      <c r="F237" s="70" t="n"/>
+      <c r="F237" s="65" t="n"/>
       <c r="G237" s="40" t="n"/>
-      <c r="H237" s="70" t="n"/>
+      <c r="H237" s="65" t="n"/>
       <c r="I237" s="40" t="n"/>
       <c r="J237" s="40" t="n"/>
       <c r="K237" s="40" t="n"/>
@@ -14760,18 +14526,18 @@
           <t>MARGEM</t>
         </is>
       </c>
-      <c r="B238" s="62" t="n">
+      <c r="B238" s="57" t="n">
         <v>0.15</v>
       </c>
       <c r="C238" s="1" t="n"/>
-      <c r="D238" s="68">
+      <c r="D238" s="63">
         <f>(D232+D233+D234+D235+D236+D237)*B238</f>
         <v/>
       </c>
       <c r="E238" s="38" t="n"/>
-      <c r="F238" s="68" t="n"/>
+      <c r="F238" s="63" t="n"/>
       <c r="G238" s="38" t="n"/>
-      <c r="H238" s="68" t="n"/>
+      <c r="H238" s="63" t="n"/>
       <c r="I238" s="38" t="n"/>
       <c r="J238" s="38" t="n"/>
       <c r="K238" s="38" t="n"/>
@@ -14784,16 +14550,16 @@
           <t>TOTAL (KG)</t>
         </is>
       </c>
-      <c r="B239" s="63" t="n"/>
+      <c r="B239" s="58" t="n"/>
       <c r="C239" s="36" t="n"/>
-      <c r="D239" s="69">
+      <c r="D239" s="64">
         <f>D232+D233+D234+D235+D236+D237+D238</f>
         <v/>
       </c>
       <c r="E239" s="39" t="n"/>
-      <c r="F239" s="69" t="n"/>
+      <c r="F239" s="64" t="n"/>
       <c r="G239" s="39" t="n"/>
-      <c r="H239" s="69" t="n"/>
+      <c r="H239" s="64" t="n"/>
       <c r="I239" s="39" t="n"/>
       <c r="J239" s="39" t="n"/>
       <c r="K239" s="39" t="n"/>

--- a/TABELA-DE-AÇO R8.xlsx
+++ b/TABELA-DE-AÇO R8.xlsx
@@ -1608,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:Y245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219:H227"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5427,7 +5427,7 @@
         <v>22</v>
       </c>
       <c r="L78" s="23">
-        <f t="shared" ref="L78:L109" si="14">((B78+D78+D78+F78+F78)-H78*2*R39)*H78*0.00785</f>
+        <f t="shared" ref="L78:L97" si="14">((B78+D78+D78+F78+F78)-H78*2*R39)*H78*0.00785</f>
         <v>0</v>
       </c>
       <c r="M78" s="31" t="s">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="23">
-        <f t="shared" ref="P132:P163" si="25">O132*6*L132</f>
+        <f t="shared" ref="P132:P145" si="25">O132*6*L132</f>
         <v>0</v>
       </c>
       <c r="Q132"/>
